--- a/cases/goodhostpital2021/项目设置_bu.xlsx
+++ b/cases/goodhostpital2021/项目设置_bu.xlsx
@@ -669,6 +669,9 @@
       <c r="C2" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D2" t="str">
+        <v>院</v>
+      </c>
       <c r="E2" t="str">
         <v>逐步提高</v>
       </c>
@@ -695,6 +698,9 @@
       <c r="C3" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D3" t="str">
+        <v>通</v>
+      </c>
       <c r="E3" t="str">
         <v>逐步提高</v>
       </c>
@@ -721,6 +727,9 @@
       <c r="C4" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D4" t="str">
+        <v>院</v>
+      </c>
       <c r="E4" t="str">
         <v>逐步提高</v>
       </c>
@@ -747,6 +756,9 @@
       <c r="C5" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D5" t="str">
+        <v>通</v>
+      </c>
       <c r="E5" t="str">
         <v>有标准</v>
       </c>
@@ -773,6 +785,9 @@
       <c r="C6" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D6" t="str">
+        <v>通</v>
+      </c>
       <c r="E6" t="str">
         <v>无标准</v>
       </c>
@@ -799,6 +814,9 @@
       <c r="C7" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D7" t="str">
+        <v>院</v>
+      </c>
       <c r="E7" t="str">
         <v>高优</v>
       </c>
@@ -825,6 +843,9 @@
       <c r="C8" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D8" t="str">
+        <v>通</v>
+      </c>
       <c r="E8" t="str">
         <v>无标准</v>
       </c>
@@ -851,6 +872,9 @@
       <c r="C9" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D9" t="str">
+        <v>通</v>
+      </c>
       <c r="E9" t="str">
         <v>逐步提高</v>
       </c>
@@ -877,6 +901,9 @@
       <c r="C10" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D10" t="str">
+        <v>院</v>
+      </c>
       <c r="E10" t="str">
         <v>逐步提高</v>
       </c>
@@ -903,6 +930,9 @@
       <c r="C11" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D11" t="str">
+        <v>院</v>
+      </c>
       <c r="E11" t="str">
         <v>逐步提高</v>
       </c>
@@ -929,6 +959,9 @@
       <c r="C12" t="str">
         <v>人员结构</v>
       </c>
+      <c r="D12" t="str">
+        <v>院</v>
+      </c>
       <c r="E12" t="str">
         <v>逐步提高</v>
       </c>
@@ -955,6 +988,9 @@
       <c r="C13" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D13" t="str">
+        <v>院</v>
+      </c>
       <c r="E13" t="str">
         <v>逐步提高</v>
       </c>
@@ -981,6 +1017,9 @@
       <c r="C14" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D14" t="str">
+        <v>院</v>
+      </c>
       <c r="E14" t="str">
         <v>逐步提高</v>
       </c>
@@ -1007,6 +1046,9 @@
       <c r="C15" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D15" t="str">
+        <v>院</v>
+      </c>
       <c r="E15" t="str">
         <v>逐步提高</v>
       </c>
@@ -1033,6 +1075,9 @@
       <c r="C16" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D16" t="str">
+        <v>院</v>
+      </c>
       <c r="E16" t="str">
         <v>逐步提高</v>
       </c>
@@ -1059,6 +1104,9 @@
       <c r="C17" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D17" t="str">
+        <v>院</v>
+      </c>
       <c r="E17" t="str">
         <v>逐步提高</v>
       </c>
@@ -1085,6 +1133,9 @@
       <c r="C18" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D18" t="str">
+        <v>院</v>
+      </c>
       <c r="E18" t="str">
         <v>逐步提高</v>
       </c>
@@ -1111,6 +1162,9 @@
       <c r="C19" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D19" t="str">
+        <v>院</v>
+      </c>
       <c r="E19" t="str">
         <v>逐步提高</v>
       </c>
@@ -1137,6 +1191,9 @@
       <c r="C20" t="str">
         <v>人才培养</v>
       </c>
+      <c r="D20" t="str">
+        <v>院</v>
+      </c>
       <c r="E20" t="str">
         <v>逐步提高</v>
       </c>
@@ -1163,6 +1220,9 @@
       <c r="C21" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D21" t="str">
+        <v>院</v>
+      </c>
       <c r="E21" t="str">
         <v>逐步提高</v>
       </c>
@@ -1189,6 +1249,9 @@
       <c r="C22" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D22" t="str">
+        <v>通</v>
+      </c>
       <c r="E22" t="str">
         <v>逐步提高</v>
       </c>
@@ -1215,6 +1278,9 @@
       <c r="C23" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D23" t="str">
+        <v>院</v>
+      </c>
       <c r="E23" t="str">
         <v>逐步提高</v>
       </c>
@@ -1241,6 +1307,9 @@
       <c r="C24" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D24" t="str">
+        <v>通</v>
+      </c>
       <c r="E24" t="str">
         <v>逐步提高</v>
       </c>
@@ -1267,6 +1336,9 @@
       <c r="C25" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D25" t="str">
+        <v>通</v>
+      </c>
       <c r="E25" t="str">
         <v>逐步提高</v>
       </c>
@@ -1293,6 +1365,9 @@
       <c r="C26" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D26" t="str">
+        <v>通</v>
+      </c>
       <c r="E26" t="str">
         <v>逐步提高</v>
       </c>
@@ -1319,6 +1394,9 @@
       <c r="C27" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D27" t="str">
+        <v>通</v>
+      </c>
       <c r="E27" t="str">
         <v>逐步提高</v>
       </c>
@@ -1345,6 +1423,9 @@
       <c r="C28" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D28" t="str">
+        <v>通</v>
+      </c>
       <c r="E28" t="str">
         <v>逐步提高</v>
       </c>
@@ -1371,6 +1452,9 @@
       <c r="C29" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D29" t="str">
+        <v>通</v>
+      </c>
       <c r="E29" t="str">
         <v>逐步提高</v>
       </c>
@@ -1397,6 +1481,9 @@
       <c r="C30" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D30" t="str">
+        <v>通</v>
+      </c>
       <c r="E30" t="str">
         <v>逐步提高</v>
       </c>
@@ -1423,6 +1510,9 @@
       <c r="C31" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D31" t="str">
+        <v>院</v>
+      </c>
       <c r="E31" t="str">
         <v>逐步提高</v>
       </c>
@@ -1449,6 +1539,9 @@
       <c r="C32" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D32" t="str">
+        <v>通</v>
+      </c>
       <c r="E32" t="str">
         <v>逐步提高</v>
       </c>
@@ -1475,6 +1568,9 @@
       <c r="C33" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D33" t="str">
+        <v>通</v>
+      </c>
       <c r="E33" t="str">
         <v>逐步提高</v>
       </c>
@@ -1501,6 +1597,9 @@
       <c r="C34" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D34" t="str">
+        <v>通</v>
+      </c>
       <c r="E34" t="str">
         <v>逐步提高</v>
       </c>
@@ -1527,6 +1626,9 @@
       <c r="C35" t="str">
         <v>功能定位</v>
       </c>
+      <c r="D35" t="str">
+        <v>通</v>
+      </c>
       <c r="E35" t="str">
         <v>逐步提高</v>
       </c>
@@ -1556,6 +1658,9 @@
       <c r="C36" t="str">
         <v>医保价值</v>
       </c>
+      <c r="D36" t="str">
+        <v>通</v>
+      </c>
       <c r="E36" t="str">
         <v>高优</v>
       </c>
@@ -1582,6 +1687,9 @@
       <c r="C37" t="str">
         <v>医保价值</v>
       </c>
+      <c r="D37" t="str">
+        <v>通</v>
+      </c>
       <c r="E37" t="str">
         <v>高优</v>
       </c>
@@ -1608,6 +1716,9 @@
       <c r="C38" t="str">
         <v>医保价值</v>
       </c>
+      <c r="D38" t="str">
+        <v>通</v>
+      </c>
       <c r="E38" t="str">
         <v>无标准</v>
       </c>
@@ -1637,6 +1748,9 @@
       <c r="C39" t="str">
         <v>医服收入</v>
       </c>
+      <c r="D39" t="str">
+        <v>通</v>
+      </c>
       <c r="E39" t="str">
         <v>高优</v>
       </c>
@@ -1666,6 +1780,9 @@
       <c r="C40" t="str">
         <v>医服收入</v>
       </c>
+      <c r="D40" t="str">
+        <v>通</v>
+      </c>
       <c r="E40" t="str">
         <v>高优</v>
       </c>
@@ -1692,6 +1809,9 @@
       <c r="C41" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D41" t="str">
+        <v>通</v>
+      </c>
       <c r="E41" t="str">
         <v>逐步提高</v>
       </c>
@@ -1718,6 +1838,9 @@
       <c r="C42" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D42" t="str">
+        <v>院</v>
+      </c>
       <c r="E42" t="str">
         <v>逐步提高</v>
       </c>
@@ -1744,6 +1867,9 @@
       <c r="C43" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D43" t="str">
+        <v>院</v>
+      </c>
       <c r="E43" t="str">
         <v>逐步提高</v>
       </c>
@@ -1770,6 +1896,9 @@
       <c r="C44" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D44" t="str">
+        <v>院</v>
+      </c>
       <c r="E44" t="str">
         <v>逐步提高</v>
       </c>
@@ -1796,6 +1925,9 @@
       <c r="C45" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D45" t="str">
+        <v>通</v>
+      </c>
       <c r="E45" t="str">
         <v>逐步降低</v>
       </c>
@@ -1822,6 +1954,9 @@
       <c r="C46" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D46" t="str">
+        <v>院</v>
+      </c>
       <c r="E46" t="str">
         <v>逐步提高</v>
       </c>
@@ -1848,6 +1983,9 @@
       <c r="C47" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D47" t="str">
+        <v>院</v>
+      </c>
       <c r="E47" t="str">
         <v>逐步提高</v>
       </c>
@@ -1874,6 +2012,9 @@
       <c r="C48" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D48" t="str">
+        <v>通</v>
+      </c>
       <c r="E48" t="str">
         <v>低优</v>
       </c>
@@ -1900,6 +2041,9 @@
       <c r="C49" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D49" t="str">
+        <v>通</v>
+      </c>
       <c r="E49" t="str">
         <v>低优</v>
       </c>
@@ -1926,6 +2070,9 @@
       <c r="C50" t="str">
         <v>合理用药</v>
       </c>
+      <c r="D50" t="str">
+        <v>通</v>
+      </c>
       <c r="E50" t="str">
         <v>逐步提高</v>
       </c>
@@ -1952,6 +2099,9 @@
       <c r="C51" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D51" t="str">
+        <v>通</v>
+      </c>
       <c r="E51" t="str">
         <v>高优</v>
       </c>
@@ -1978,6 +2128,9 @@
       <c r="C52" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D52" t="str">
+        <v>通</v>
+      </c>
       <c r="E52" t="str">
         <v>高优</v>
       </c>
@@ -2004,6 +2157,9 @@
       <c r="C53" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D53" t="str">
+        <v>通</v>
+      </c>
       <c r="E53" t="str">
         <v>高优</v>
       </c>
@@ -2030,6 +2186,9 @@
       <c r="C54" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D54" t="str">
+        <v>通</v>
+      </c>
       <c r="E54" t="str">
         <v>高优</v>
       </c>
@@ -2053,6 +2212,9 @@
       <c r="C55" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D55" t="str">
+        <v>通</v>
+      </c>
       <c r="E55" t="str">
         <v>低优</v>
       </c>
@@ -2082,6 +2244,9 @@
       <c r="C56" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D56" t="str">
+        <v>科</v>
+      </c>
       <c r="E56" t="str">
         <v>高优</v>
       </c>
@@ -2111,6 +2276,9 @@
       <c r="C57" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D57" t="str">
+        <v>科</v>
+      </c>
       <c r="E57" t="str">
         <v>高优</v>
       </c>
@@ -2140,6 +2308,9 @@
       <c r="C58" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D58" t="str">
+        <v>科</v>
+      </c>
       <c r="E58" t="str">
         <v>高优</v>
       </c>
@@ -2169,6 +2340,9 @@
       <c r="C59" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D59" t="str">
+        <v>科</v>
+      </c>
       <c r="E59" t="str">
         <v>高优</v>
       </c>
@@ -2198,6 +2372,9 @@
       <c r="C60" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D60" t="str">
+        <v>科</v>
+      </c>
       <c r="E60" t="str">
         <v>高优</v>
       </c>
@@ -2227,6 +2404,9 @@
       <c r="C61" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D61" t="str">
+        <v>科</v>
+      </c>
       <c r="E61" t="str">
         <v>高优</v>
       </c>
@@ -2256,6 +2436,9 @@
       <c r="C62" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D62" t="str">
+        <v>科</v>
+      </c>
       <c r="E62" t="str">
         <v>高优</v>
       </c>
@@ -2285,6 +2468,9 @@
       <c r="C63" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D63" t="str">
+        <v>科</v>
+      </c>
       <c r="E63" t="str">
         <v>高优</v>
       </c>
@@ -2314,6 +2500,9 @@
       <c r="C64" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D64" t="str">
+        <v>科</v>
+      </c>
       <c r="E64" t="str">
         <v>高优</v>
       </c>
@@ -2343,6 +2532,9 @@
       <c r="C65" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D65" t="str">
+        <v>科</v>
+      </c>
       <c r="E65" t="str">
         <v>高优</v>
       </c>
@@ -2372,6 +2564,9 @@
       <c r="C66" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D66" t="str">
+        <v>科</v>
+      </c>
       <c r="E66" t="str">
         <v>高优</v>
       </c>
@@ -2401,6 +2596,9 @@
       <c r="C67" t="str">
         <v>地位影响</v>
       </c>
+      <c r="D67" t="str">
+        <v>科</v>
+      </c>
       <c r="E67" t="str">
         <v>高优</v>
       </c>
@@ -2427,6 +2625,9 @@
       <c r="C68" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D68" t="str">
+        <v>通</v>
+      </c>
       <c r="E68" t="str">
         <v>逐步提高</v>
       </c>
@@ -2453,6 +2654,9 @@
       <c r="C69" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D69" t="str">
+        <v>通</v>
+      </c>
       <c r="E69" t="str">
         <v>逐步提高</v>
       </c>
@@ -2479,6 +2683,9 @@
       <c r="C70" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D70" t="str">
+        <v>通</v>
+      </c>
       <c r="E70" t="str">
         <v>逐步提高</v>
       </c>
@@ -2505,6 +2712,9 @@
       <c r="C71" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D71" t="str">
+        <v>通</v>
+      </c>
       <c r="E71" t="str">
         <v>逐步提高</v>
       </c>
@@ -2531,6 +2741,9 @@
       <c r="C72" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D72" t="str">
+        <v>通</v>
+      </c>
       <c r="E72" t="str">
         <v>逐步提高</v>
       </c>
@@ -2557,6 +2770,9 @@
       <c r="C73" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D73" t="str">
+        <v>通</v>
+      </c>
       <c r="E73" t="str">
         <v>逐步提高</v>
       </c>
@@ -2583,6 +2799,9 @@
       <c r="C74" t="str">
         <v>学科建设</v>
       </c>
+      <c r="D74" t="str">
+        <v>通</v>
+      </c>
       <c r="E74" t="str">
         <v>逐步提高</v>
       </c>
@@ -2609,6 +2828,9 @@
       <c r="C75" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D75" t="str">
+        <v>通</v>
+      </c>
       <c r="E75" t="str">
         <v>逐步降低</v>
       </c>
@@ -2635,6 +2857,9 @@
       <c r="C76" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D76" t="str">
+        <v>通</v>
+      </c>
       <c r="E76" t="str">
         <v>逐步提高</v>
       </c>
@@ -2661,6 +2886,9 @@
       <c r="C77" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D77" t="str">
+        <v>通</v>
+      </c>
       <c r="E77" t="str">
         <v>逐步提高</v>
       </c>
@@ -2687,6 +2915,9 @@
       <c r="C78" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D78" t="str">
+        <v>院</v>
+      </c>
       <c r="E78" t="str">
         <v>逐步提高</v>
       </c>
@@ -2713,6 +2944,9 @@
       <c r="C79" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D79" t="str">
+        <v>通</v>
+      </c>
       <c r="E79" t="str">
         <v>逐步提高</v>
       </c>
@@ -2739,6 +2973,9 @@
       <c r="C80" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D80" t="str">
+        <v>通</v>
+      </c>
       <c r="E80" t="str">
         <v>高优</v>
       </c>
@@ -2765,6 +3002,9 @@
       <c r="C81" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D81" t="str">
+        <v>通</v>
+      </c>
       <c r="E81" t="str">
         <v>无标准</v>
       </c>
@@ -2791,6 +3031,9 @@
       <c r="C82" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D82" t="str">
+        <v>通</v>
+      </c>
       <c r="E82" t="str">
         <v>逐步提高</v>
       </c>
@@ -2817,6 +3060,9 @@
       <c r="C83" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D83" t="str">
+        <v>通</v>
+      </c>
       <c r="E83" t="str">
         <v>逐步提高</v>
       </c>
@@ -2843,6 +3089,9 @@
       <c r="C84" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D84" t="str">
+        <v>通</v>
+      </c>
       <c r="E84" t="str">
         <v>无标准</v>
       </c>
@@ -2869,6 +3118,9 @@
       <c r="C85" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D85" t="str">
+        <v>通</v>
+      </c>
       <c r="E85" t="str">
         <v>高优</v>
       </c>
@@ -2895,6 +3147,9 @@
       <c r="C86" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D86" t="str">
+        <v>院</v>
+      </c>
       <c r="E86" t="str">
         <v>低优</v>
       </c>
@@ -2921,6 +3176,9 @@
       <c r="C87" t="str">
         <v>收支结构</v>
       </c>
+      <c r="D87" t="str">
+        <v>通</v>
+      </c>
       <c r="E87" t="str">
         <v>逐步提高</v>
       </c>
@@ -2947,6 +3205,9 @@
       <c r="C88" t="str">
         <v>服务流程</v>
       </c>
+      <c r="D88" t="str">
+        <v>通</v>
+      </c>
       <c r="E88" t="str">
         <v>低优</v>
       </c>
@@ -2973,6 +3234,9 @@
       <c r="C89" t="str">
         <v>服务流程</v>
       </c>
+      <c r="D89" t="str">
+        <v>院</v>
+      </c>
       <c r="E89" t="str">
         <v>逐步提高</v>
       </c>
@@ -2999,6 +3263,9 @@
       <c r="C90" t="str">
         <v>服务流程</v>
       </c>
+      <c r="D90" t="str">
+        <v>院</v>
+      </c>
       <c r="E90" t="str">
         <v>逐步提高</v>
       </c>
@@ -3025,6 +3292,9 @@
       <c r="C91" t="str">
         <v>服务流程</v>
       </c>
+      <c r="D91" t="str">
+        <v>院</v>
+      </c>
       <c r="E91" t="str">
         <v>逐步提高</v>
       </c>
@@ -3051,6 +3321,9 @@
       <c r="C92" t="str">
         <v>服务流程</v>
       </c>
+      <c r="D92" t="str">
+        <v>院</v>
+      </c>
       <c r="E92" t="str">
         <v>逐步提高</v>
       </c>
@@ -3077,6 +3350,9 @@
       <c r="C93" t="str">
         <v>服务流程</v>
       </c>
+      <c r="D93" t="str">
+        <v>院</v>
+      </c>
       <c r="E93" t="str">
         <v>逐步降低</v>
       </c>
@@ -3103,6 +3379,9 @@
       <c r="C94" t="str">
         <v>质量安全</v>
       </c>
+      <c r="D94" t="str">
+        <v>通</v>
+      </c>
       <c r="E94" t="str">
         <v>逐步降低</v>
       </c>
@@ -3129,6 +3408,9 @@
       <c r="C95" t="str">
         <v>质量安全</v>
       </c>
+      <c r="D95" t="str">
+        <v>院</v>
+      </c>
       <c r="E95" t="str">
         <v>逐步提高</v>
       </c>
@@ -3155,6 +3437,9 @@
       <c r="C96" t="str">
         <v>质量安全</v>
       </c>
+      <c r="D96" t="str">
+        <v>通</v>
+      </c>
       <c r="E96" t="str">
         <v>逐步降低</v>
       </c>
@@ -3181,6 +3466,9 @@
       <c r="C97" t="str">
         <v>质量安全</v>
       </c>
+      <c r="D97" t="str">
+        <v>通</v>
+      </c>
       <c r="E97" t="str">
         <v>逐步降低</v>
       </c>
@@ -3207,6 +3495,9 @@
       <c r="C98" t="str">
         <v>质量安全</v>
       </c>
+      <c r="D98" t="str">
+        <v>通</v>
+      </c>
       <c r="E98" t="str">
         <v>逐步提高</v>
       </c>
@@ -3233,6 +3524,9 @@
       <c r="C99" t="str">
         <v>质量安全</v>
       </c>
+      <c r="D99" t="str">
+        <v>院</v>
+      </c>
       <c r="E99" t="str">
         <v>逐步提高</v>
       </c>
@@ -3259,6 +3553,9 @@
       <c r="C100" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D100" t="str">
+        <v>通</v>
+      </c>
       <c r="E100" t="str">
         <v>逐步降低</v>
       </c>
@@ -3285,6 +3582,9 @@
       <c r="C101" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D101" t="str">
+        <v>通</v>
+      </c>
       <c r="E101" t="str">
         <v>逐步降低</v>
       </c>
@@ -3311,6 +3611,9 @@
       <c r="C102" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D102" t="str">
+        <v>通</v>
+      </c>
       <c r="E102" t="str">
         <v>低优</v>
       </c>
@@ -3337,6 +3640,9 @@
       <c r="C103" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D103" t="str">
+        <v>通</v>
+      </c>
       <c r="E103" t="str">
         <v>逐步降低</v>
       </c>
@@ -3363,6 +3669,9 @@
       <c r="C104" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D104" t="str">
+        <v>通</v>
+      </c>
       <c r="E104" t="str">
         <v>逐步降低</v>
       </c>
@@ -3389,6 +3698,9 @@
       <c r="C105" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D105" t="str">
+        <v>通</v>
+      </c>
       <c r="E105" t="str">
         <v>逐步降低</v>
       </c>
@@ -3415,6 +3727,9 @@
       <c r="C106" t="str">
         <v>费用控制</v>
       </c>
+      <c r="D106" t="str">
+        <v>通</v>
+      </c>
       <c r="E106" t="str">
         <v>逐步降低</v>
       </c>
@@ -3441,6 +3756,9 @@
       <c r="C107" t="str">
         <v>资源效率</v>
       </c>
+      <c r="D107" t="str">
+        <v>通</v>
+      </c>
       <c r="E107" t="str">
         <v>无标准</v>
       </c>
@@ -3467,6 +3785,9 @@
       <c r="C108" t="str">
         <v>资源效率</v>
       </c>
+      <c r="D108" t="str">
+        <v>通</v>
+      </c>
       <c r="E108" t="str">
         <v>无标准</v>
       </c>
@@ -3493,6 +3814,9 @@
       <c r="C109" t="str">
         <v>资源效率</v>
       </c>
+      <c r="D109" t="str">
+        <v>通</v>
+      </c>
       <c r="E109" t="str">
         <v>无标准</v>
       </c>
@@ -3519,6 +3843,9 @@
       <c r="C110" t="str">
         <v>资源效率</v>
       </c>
+      <c r="D110" t="str">
+        <v>通</v>
+      </c>
       <c r="E110" t="str">
         <v>有标准</v>
       </c>
@@ -3545,6 +3872,9 @@
       <c r="C111" t="str">
         <v>资源效率</v>
       </c>
+      <c r="D111" t="str">
+        <v>通</v>
+      </c>
       <c r="E111" t="str">
         <v>高优</v>
       </c>
@@ -3570,6 +3900,9 @@
       </c>
       <c r="C112" t="str">
         <v>资源效率</v>
+      </c>
+      <c r="D112" t="str">
+        <v>通</v>
       </c>
       <c r="E112" t="str">
         <v>无标准</v>

--- a/cases/goodhostpital2021/项目设置_bu.xlsx
+++ b/cases/goodhostpital2021/项目设置_bu.xlsx
@@ -609,7 +609,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -617,14 +617,15 @@
     <col min="1" max="1" customWidth="1" width="29"/>
     <col min="2" max="2" customWidth="1" width="7"/>
     <col min="3" max="3" customWidth="1" width="9"/>
-    <col min="4" max="4" customWidth="1" width="9"/>
-    <col min="5" max="5" customWidth="1" width="9"/>
+    <col min="4" max="4" customWidth="1" width="8"/>
+    <col min="5" max="5" customWidth="1" width="8"/>
     <col min="6" max="6" customWidth="1" width="9"/>
-    <col min="7" max="7" customWidth="1" width="24"/>
-    <col min="8" max="8" customWidth="1" width="9"/>
+    <col min="7" max="7" customWidth="1" width="9"/>
+    <col min="8" max="8" customWidth="1" width="24"/>
     <col min="9" max="9" customWidth="1" width="9"/>
     <col min="10" max="10" customWidth="1" width="9"/>
     <col min="11" max="11" customWidth="1" width="9"/>
+    <col min="12" max="12" customWidth="1" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,27 +639,30 @@
         <v>上级指标</v>
       </c>
       <c r="D1" t="str">
-        <v>适用范围</v>
+        <v>院科通</v>
       </c>
       <c r="E1" t="str">
+        <v>指或数</v>
+      </c>
+      <c r="F1" t="str">
         <v>指标导向</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>计量单位</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>指标来源</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>三级中医</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>三级综合</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>二级综合</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>指标说明</v>
       </c>
     </row>
@@ -673,56 +677,68 @@
         <v>院</v>
       </c>
       <c r="E2" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F2" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G2" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H2" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
-      <c r="H2" t="str">
-        <v>无</v>
-      </c>
       <c r="I2" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J2" t="str">
         <v>监</v>
+      </c>
+      <c r="K2" t="str">
+        <v>监</v>
+      </c>
+      <c r="L2" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>中医类别执业医师含执业助理医师占执业医师总数比例</v>
+        <v>儿科医师占比</v>
       </c>
       <c r="C3" t="str">
         <v>人员结构</v>
       </c>
       <c r="D3" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E3" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F3" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G3" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H3" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
-      <c r="H3" t="str">
-        <v>监</v>
-      </c>
       <c r="I3" t="str">
         <v>无</v>
       </c>
       <c r="J3" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K3" t="str">
+        <v>监</v>
+      </c>
+      <c r="L3" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>儿科医师占比</v>
+        <v>病理医师占比</v>
       </c>
       <c r="C4" t="str">
         <v>人员结构</v>
@@ -731,114 +747,138 @@
         <v>院</v>
       </c>
       <c r="E4" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F4" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G4" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H4" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
-      <c r="H4" t="str">
-        <v>无</v>
-      </c>
       <c r="I4" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J4" t="str">
         <v>监</v>
+      </c>
+      <c r="K4" t="str">
+        <v>监</v>
+      </c>
+      <c r="L4" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>医护比</v>
+        <v>重症医师占比</v>
       </c>
       <c r="C5" t="str">
         <v>人员结构</v>
       </c>
       <c r="D5" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E5" t="str">
-        <v>有标准</v>
+        <v>指</v>
       </c>
       <c r="F5" t="str">
-        <v>比值（1:X）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G5" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H5" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
-      <c r="H5" t="str">
-        <v>监</v>
-      </c>
       <c r="I5" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J5" t="str">
         <v>监</v>
+      </c>
+      <c r="K5" t="str">
+        <v>监</v>
+      </c>
+      <c r="L5" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>医师人数</v>
+        <v>麻醉医师占比</v>
       </c>
       <c r="C6" t="str">
         <v>人员结构</v>
       </c>
       <c r="D6" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E6" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F6" t="str">
-        <v>人</v>
+        <v>逐步提高</v>
       </c>
       <c r="G6" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H6" t="str">
-        <v>自</v>
+        <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="I6" t="str">
-        <v>自</v>
+        <v>无</v>
       </c>
       <c r="J6" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K6" t="str">
+        <v>监</v>
+      </c>
+      <c r="L6" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>医院感染管理专职人员数与开放床位数比</v>
+        <v>中医类别执业医师含执业助理医师占执业医师总数比例</v>
       </c>
       <c r="C7" t="str">
         <v>人员结构</v>
       </c>
       <c r="D7" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E7" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F7" t="str">
-        <v>比值（1:X）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G7" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H7" t="str">
-        <v>自</v>
+        <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="I7" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J7" t="str">
-        <v>自</v>
+        <v>无</v>
+      </c>
+      <c r="K7" t="str">
+        <v>无</v>
+      </c>
+      <c r="L7" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>护士人数</v>
+        <v>医护比</v>
       </c>
       <c r="C8" t="str">
         <v>人员结构</v>
@@ -847,22 +887,28 @@
         <v>通</v>
       </c>
       <c r="E8" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F8" t="str">
-        <v>人</v>
+        <v>低优</v>
       </c>
       <c r="G8" t="str">
-        <v>自制医院填报</v>
+        <v>比值（1:X）</v>
       </c>
       <c r="H8" t="str">
-        <v>自</v>
+        <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="I8" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J8" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K8" t="str">
+        <v>监</v>
+      </c>
+      <c r="L8" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="9">
@@ -876,27 +922,33 @@
         <v>通</v>
       </c>
       <c r="E9" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F9" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G9" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H9" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H9" t="str">
-        <v>考</v>
-      </c>
       <c r="I9" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J9" t="str">
         <v>无</v>
+      </c>
+      <c r="K9" t="str">
+        <v>无</v>
+      </c>
+      <c r="L9" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>病理医师占比</v>
+        <v>医院感染管理专职人员数与开放床位数比</v>
       </c>
       <c r="C10" t="str">
         <v>人员结构</v>
@@ -905,80 +957,92 @@
         <v>院</v>
       </c>
       <c r="E10" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F10" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G10" t="str">
-        <v>国家医疗机构、医师、护士电子化注册系统</v>
+        <v>比值（1:X）</v>
       </c>
       <c r="H10" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I10" t="str">
-        <v>监</v>
+        <v>审</v>
       </c>
       <c r="J10" t="str">
-        <v>监</v>
+        <v>审</v>
+      </c>
+      <c r="K10" t="str">
+        <v>审</v>
+      </c>
+      <c r="L10" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>重症医师占比</v>
+        <v>医师人数</v>
       </c>
       <c r="C11" t="str">
         <v>人员结构</v>
       </c>
       <c r="D11" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E11" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F11" t="str">
-        <v>百分比（%）</v>
+        <v>无标准</v>
       </c>
       <c r="G11" t="str">
-        <v>国家医疗机构、医师、护士电子化注册系统</v>
+        <v>人</v>
       </c>
       <c r="H11" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I11" t="str">
-        <v>监</v>
+        <v>自</v>
       </c>
       <c r="J11" t="str">
-        <v>监</v>
+        <v>自</v>
+      </c>
+      <c r="K11" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>麻醉医师占比</v>
+        <v>护士人数</v>
       </c>
       <c r="C12" t="str">
         <v>人员结构</v>
       </c>
       <c r="D12" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E12" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F12" t="str">
-        <v>百分比（%）</v>
+        <v>无标准</v>
       </c>
       <c r="G12" t="str">
-        <v>国家医疗机构、医师、护士电子化注册系统</v>
+        <v>人</v>
       </c>
       <c r="H12" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I12" t="str">
-        <v>监</v>
+        <v>自</v>
       </c>
       <c r="J12" t="str">
-        <v>监</v>
+        <v>自</v>
+      </c>
+      <c r="K12" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="13">
@@ -992,22 +1056,28 @@
         <v>院</v>
       </c>
       <c r="E13" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F13" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G13" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H13" t="str">
         <v>国家卫生健康委</v>
       </c>
-      <c r="H13" t="str">
-        <v>监</v>
-      </c>
       <c r="I13" t="str">
         <v>监</v>
       </c>
       <c r="J13" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K13" t="str">
+        <v>无</v>
+      </c>
+      <c r="L13" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="14">
@@ -1021,22 +1091,28 @@
         <v>院</v>
       </c>
       <c r="E14" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F14" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G14" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H14" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H14" t="str">
-        <v>考</v>
-      </c>
       <c r="I14" t="str">
         <v>考</v>
       </c>
       <c r="J14" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K14" t="str">
+        <v>无</v>
+      </c>
+      <c r="L14" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="15">
@@ -1050,22 +1126,28 @@
         <v>院</v>
       </c>
       <c r="E15" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F15" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G15" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H15" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H15" t="str">
-        <v>考</v>
-      </c>
       <c r="I15" t="str">
         <v>考</v>
       </c>
       <c r="J15" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K15" t="str">
+        <v>无</v>
+      </c>
+      <c r="L15" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="16">
@@ -1079,22 +1161,28 @@
         <v>院</v>
       </c>
       <c r="E16" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F16" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G16" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H16" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H16" t="str">
-        <v>考</v>
-      </c>
       <c r="I16" t="str">
         <v>考</v>
       </c>
       <c r="J16" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K16" t="str">
+        <v>无</v>
+      </c>
+      <c r="L16" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="17">
@@ -1108,22 +1196,28 @@
         <v>院</v>
       </c>
       <c r="E17" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F17" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G17" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H17" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H17" t="str">
-        <v>考</v>
-      </c>
       <c r="I17" t="str">
         <v>考</v>
       </c>
       <c r="J17" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K17" t="str">
+        <v>无</v>
+      </c>
+      <c r="L17" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="18">
@@ -1137,22 +1231,28 @@
         <v>院</v>
       </c>
       <c r="E18" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F18" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G18" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H18" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H18" t="str">
-        <v>考</v>
-      </c>
       <c r="I18" t="str">
         <v>考</v>
       </c>
       <c r="J18" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K18" t="str">
+        <v>无</v>
+      </c>
+      <c r="L18" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="19">
@@ -1166,22 +1266,28 @@
         <v>院</v>
       </c>
       <c r="E19" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F19" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="G19" t="str">
         <v>比值（1:X）</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H19" t="str">
-        <v>考</v>
-      </c>
       <c r="I19" t="str">
         <v>考</v>
       </c>
       <c r="J19" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K19" t="str">
+        <v>无</v>
+      </c>
+      <c r="L19" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="20">
@@ -1195,56 +1301,68 @@
         <v>院</v>
       </c>
       <c r="E20" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F20" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="G20" t="str">
         <v>比值（1:X）</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H20" t="str">
-        <v>考</v>
-      </c>
       <c r="I20" t="str">
         <v>考</v>
       </c>
       <c r="J20" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K20" t="str">
+        <v>无</v>
+      </c>
+      <c r="L20" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>下转患者人次数</v>
+        <v>出院患者三级手术占比</v>
       </c>
       <c r="C21" t="str">
         <v>功能定位</v>
       </c>
       <c r="D21" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E21" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F21" t="str">
-        <v>人次</v>
+        <v>逐步提高</v>
       </c>
       <c r="G21" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H21" t="str">
-        <v>考</v>
+        <v>病案首页</v>
       </c>
       <c r="I21" t="str">
-        <v>考</v>
+        <v>无</v>
       </c>
       <c r="J21" t="str">
         <v>无</v>
+      </c>
+      <c r="K21" t="str">
+        <v>监</v>
+      </c>
+      <c r="L21" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>以中医为主治疗的出院患者比例</v>
+        <v>出院三级手术人数占比</v>
       </c>
       <c r="C22" t="str">
         <v>功能定位</v>
@@ -1253,56 +1371,68 @@
         <v>通</v>
       </c>
       <c r="E22" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F22" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G22" t="str">
-        <v>中医病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H22" t="str">
-        <v>监</v>
+        <v>自制计算值</v>
       </c>
       <c r="I22" t="str">
         <v>无</v>
       </c>
       <c r="J22" t="str">
         <v>无</v>
+      </c>
+      <c r="K22" t="str">
+        <v>算</v>
+      </c>
+      <c r="L22" t="str">
+        <v>出院患者手术占比*出院患者三级手术占比</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>住院下转患者人次数</v>
+        <v>以中医为主治疗的出院患者比例</v>
       </c>
       <c r="C23" t="str">
         <v>功能定位</v>
       </c>
       <c r="D23" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E23" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F23" t="str">
-        <v>人次</v>
+        <v>逐步提高</v>
       </c>
       <c r="G23" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H23" t="str">
-        <v>考</v>
+        <v>中医病案首页</v>
       </c>
       <c r="I23" t="str">
-        <v>考</v>
+        <v>监</v>
       </c>
       <c r="J23" t="str">
         <v>无</v>
+      </c>
+      <c r="K23" t="str">
+        <v>无</v>
+      </c>
+      <c r="L23" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>住院手术患者围手术期中医治疗比例</v>
+        <v>出院患者中药饮片使用率</v>
       </c>
       <c r="C24" t="str">
         <v>功能定位</v>
@@ -1311,27 +1441,33 @@
         <v>通</v>
       </c>
       <c r="E24" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F24" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G24" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H24" t="str">
         <v>中医病案首页</v>
       </c>
-      <c r="H24" t="str">
-        <v>考</v>
-      </c>
       <c r="I24" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J24" t="str">
         <v>无</v>
+      </c>
+      <c r="K24" t="str">
+        <v>无</v>
+      </c>
+      <c r="L24" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>出院患者三级手术占比</v>
+        <v>出院患者使用中医非药物疗法比例</v>
       </c>
       <c r="C25" t="str">
         <v>功能定位</v>
@@ -1340,27 +1476,33 @@
         <v>通</v>
       </c>
       <c r="E25" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F25" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G25" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H25" t="str">
-        <v>无</v>
+        <v>中医病案首页</v>
       </c>
       <c r="I25" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J25" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K25" t="str">
+        <v>无</v>
+      </c>
+      <c r="L25" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>出院患者中药饮片使用率</v>
+        <v>门诊中药处方比例</v>
       </c>
       <c r="C26" t="str">
         <v>功能定位</v>
@@ -1369,27 +1511,33 @@
         <v>通</v>
       </c>
       <c r="E26" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F26" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G26" t="str">
-        <v>中医病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H26" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I26" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J26" t="str">
         <v>无</v>
+      </c>
+      <c r="K26" t="str">
+        <v>无</v>
+      </c>
+      <c r="L26" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>出院患者使用中医非药物疗法比例</v>
+        <v>门诊患者中药饮片使用率</v>
       </c>
       <c r="C27" t="str">
         <v>功能定位</v>
@@ -1398,27 +1546,33 @@
         <v>通</v>
       </c>
       <c r="E27" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F27" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G27" t="str">
-        <v>中医病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H27" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I27" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J27" t="str">
         <v>无</v>
+      </c>
+      <c r="K27" t="str">
+        <v>无</v>
+      </c>
+      <c r="L27" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>出院患者四级手术比例</v>
+        <v>门诊患者使用中医非药物疗法比例</v>
       </c>
       <c r="C28" t="str">
         <v>功能定位</v>
@@ -1427,27 +1581,33 @@
         <v>通</v>
       </c>
       <c r="E28" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F28" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G28" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H28" t="str">
-        <v>无</v>
+        <v>医院填报</v>
       </c>
       <c r="I28" t="str">
         <v>监</v>
       </c>
       <c r="J28" t="str">
         <v>无</v>
+      </c>
+      <c r="K28" t="str">
+        <v>无</v>
+      </c>
+      <c r="L28" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>出院患者微创手术占比</v>
+        <v>门诊散装中药饮片和小包装中药饮片处方比例</v>
       </c>
       <c r="C29" t="str">
         <v>功能定位</v>
@@ -1456,27 +1616,33 @@
         <v>通</v>
       </c>
       <c r="E29" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F29" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G29" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H29" t="str">
-        <v>无</v>
+        <v>医院填报</v>
       </c>
       <c r="I29" t="str">
         <v>监</v>
       </c>
       <c r="J29" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K29" t="str">
+        <v>无</v>
+      </c>
+      <c r="L29" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>出院患者手术占比</v>
+        <v>出院四级手术人数占比</v>
       </c>
       <c r="C30" t="str">
         <v>功能定位</v>
@@ -1485,143 +1651,173 @@
         <v>通</v>
       </c>
       <c r="E30" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F30" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G30" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H30" t="str">
-        <v>无</v>
+        <v>自制计算值</v>
       </c>
       <c r="I30" t="str">
-        <v>监</v>
+        <v>算</v>
       </c>
       <c r="J30" t="str">
-        <v>监</v>
+        <v>算</v>
+      </c>
+      <c r="K30" t="str">
+        <v>无</v>
+      </c>
+      <c r="L30" t="str">
+        <v>出院患者手术占比*出院患者四级手术比例</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>门急诊下转患者人次数</v>
+        <v>出院微创手术人数占比</v>
       </c>
       <c r="C31" t="str">
         <v>功能定位</v>
       </c>
       <c r="D31" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E31" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F31" t="str">
-        <v>人次</v>
+        <v>逐步提高</v>
       </c>
       <c r="G31" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H31" t="str">
-        <v>考</v>
+        <v>自制计算值</v>
       </c>
       <c r="I31" t="str">
-        <v>考</v>
+        <v>算</v>
       </c>
       <c r="J31" t="str">
-        <v>无</v>
+        <v>算</v>
+      </c>
+      <c r="K31" t="str">
+        <v>算</v>
+      </c>
+      <c r="L31" t="str">
+        <v>出院患者手术占比*出院患者微创手术占比</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>门诊中药处方比例</v>
+        <v>下转患者人次数</v>
       </c>
       <c r="C32" t="str">
         <v>功能定位</v>
       </c>
       <c r="D32" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E32" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F32" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G32" t="str">
+        <v>人次</v>
+      </c>
+      <c r="H32" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H32" t="str">
-        <v>监</v>
-      </c>
       <c r="I32" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J32" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K32" t="str">
+        <v>无</v>
+      </c>
+      <c r="L32" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>门诊患者中药饮片使用率</v>
+        <v>住院下转患者人次数</v>
       </c>
       <c r="C33" t="str">
         <v>功能定位</v>
       </c>
       <c r="D33" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E33" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F33" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G33" t="str">
+        <v>人次</v>
+      </c>
+      <c r="H33" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H33" t="str">
-        <v>监</v>
-      </c>
       <c r="I33" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J33" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K33" t="str">
+        <v>无</v>
+      </c>
+      <c r="L33" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>门诊患者使用中医非药物疗法比例</v>
+        <v>门急诊下转患者人次数</v>
       </c>
       <c r="C34" t="str">
         <v>功能定位</v>
       </c>
       <c r="D34" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E34" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F34" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G34" t="str">
+        <v>人次</v>
+      </c>
+      <c r="H34" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H34" t="str">
-        <v>监</v>
-      </c>
       <c r="I34" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J34" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K34" t="str">
+        <v>无</v>
+      </c>
+      <c r="L34" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>门诊散装中药饮片和小包装中药饮片处方比例</v>
+        <v>住院手术患者围手术期中医治疗比例</v>
       </c>
       <c r="C35" t="str">
         <v>功能定位</v>
@@ -1630,326 +1826,392 @@
         <v>通</v>
       </c>
       <c r="E35" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F35" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G35" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H35" t="str">
-        <v>监</v>
+        <v>中医病案首页</v>
       </c>
       <c r="I35" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J35" t="str">
         <v>无</v>
+      </c>
+      <c r="K35" t="str">
+        <v>无</v>
+      </c>
+      <c r="L35" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>CMI值</v>
-      </c>
-      <c r="B36">
-        <v>0.618</v>
+        <v>出院患者四级手术比例</v>
       </c>
       <c r="C36" t="str">
-        <v>医保价值</v>
+        <v>功能定位</v>
       </c>
       <c r="D36" t="str">
         <v>通</v>
       </c>
       <c r="E36" t="str">
-        <v>高优</v>
+        <v>数</v>
+      </c>
+      <c r="F36" t="str">
+        <v>逐步提高</v>
       </c>
       <c r="G36" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H36" t="str">
-        <v>自</v>
+        <v>病案首页</v>
       </c>
       <c r="I36" t="str">
         <v>自</v>
       </c>
       <c r="J36" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K36" t="str">
+        <v>无</v>
+      </c>
+      <c r="L36" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>CMI当量DRGs组数</v>
-      </c>
-      <c r="B37">
-        <v>0.382</v>
+        <v>出院患者微创手术占比</v>
       </c>
       <c r="C37" t="str">
-        <v>医保价值</v>
+        <v>功能定位</v>
       </c>
       <c r="D37" t="str">
         <v>通</v>
       </c>
       <c r="E37" t="str">
-        <v>高优</v>
+        <v>数</v>
       </c>
       <c r="F37" t="str">
-        <v>组</v>
+        <v>逐步提高</v>
       </c>
       <c r="G37" t="str">
-        <v>自制计算值</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H37" t="str">
-        <v>算</v>
+        <v>病案首页</v>
       </c>
       <c r="I37" t="str">
-        <v>算</v>
+        <v>自</v>
       </c>
       <c r="J37" t="str">
-        <v>算</v>
+        <v>监</v>
+      </c>
+      <c r="K37" t="str">
+        <v>监</v>
+      </c>
+      <c r="L37" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>DRGs组数</v>
+        <v>出院患者手术占比</v>
       </c>
       <c r="C38" t="str">
-        <v>医保价值</v>
+        <v>功能定位</v>
       </c>
       <c r="D38" t="str">
         <v>通</v>
       </c>
       <c r="E38" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F38" t="str">
-        <v>组</v>
+        <v>逐步提高</v>
       </c>
       <c r="G38" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H38" t="str">
-        <v>自</v>
+        <v>病案首页</v>
       </c>
       <c r="I38" t="str">
         <v>自</v>
       </c>
       <c r="J38" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K38" t="str">
+        <v>监</v>
+      </c>
+      <c r="L38" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>医疗服务收入三年复合增长率</v>
+        <v>CMI当量DRGs组数</v>
       </c>
       <c r="B39">
         <v>0.382</v>
       </c>
       <c r="C39" t="str">
-        <v>医服收入</v>
+        <v>医保价值</v>
       </c>
       <c r="D39" t="str">
         <v>通</v>
       </c>
       <c r="E39" t="str">
+        <v>指</v>
+      </c>
+      <c r="F39" t="str">
         <v>高优</v>
       </c>
-      <c r="F39" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G39" t="str">
+        <v>组</v>
+      </c>
+      <c r="H39" t="str">
         <v>自制计算值</v>
       </c>
-      <c r="H39" t="str">
-        <v>无</v>
-      </c>
       <c r="I39" t="str">
-        <v>无</v>
+        <v>算</v>
       </c>
       <c r="J39" t="str">
-        <v>无</v>
+        <v>算</v>
+      </c>
+      <c r="K39" t="str">
+        <v>算</v>
+      </c>
+      <c r="L39" t="str">
+        <v>CMI值*DRGs组数</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>医疗服务收入占全院比重</v>
+        <v>CMI值</v>
       </c>
       <c r="B40">
         <v>0.618</v>
       </c>
       <c r="C40" t="str">
-        <v>医服收入</v>
+        <v>医保价值</v>
       </c>
       <c r="D40" t="str">
         <v>通</v>
       </c>
       <c r="E40" t="str">
+        <v>指</v>
+      </c>
+      <c r="F40" t="str">
         <v>高优</v>
       </c>
-      <c r="F40" t="str">
-        <v>百分比（%）</v>
-      </c>
-      <c r="G40" t="str">
-        <v>自制计算值</v>
-      </c>
       <c r="H40" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I40" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J40" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K40" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>住院患者基本药物使用率</v>
+        <v>DRGs组数</v>
       </c>
       <c r="C41" t="str">
-        <v>合理用药</v>
+        <v>医保价值</v>
       </c>
       <c r="D41" t="str">
         <v>通</v>
       </c>
       <c r="E41" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F41" t="str">
-        <v>百分比（%）</v>
+        <v>无标准</v>
       </c>
       <c r="G41" t="str">
-        <v>医院填报</v>
+        <v>组</v>
       </c>
       <c r="H41" t="str">
-        <v>考</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I41" t="str">
-        <v>考</v>
+        <v>自</v>
       </c>
       <c r="J41" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K41" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>国家组织药品集中采购中标药品金额占比</v>
+        <v>医疗服务收入三年复合增长率</v>
+      </c>
+      <c r="B42">
+        <v>0.382</v>
       </c>
       <c r="C42" t="str">
-        <v>合理用药</v>
+        <v>医服收入</v>
       </c>
       <c r="D42" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E42" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F42" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G42" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H42" t="str">
-        <v>考</v>
+        <v>自制计算值</v>
       </c>
       <c r="I42" t="str">
-        <v>考</v>
+        <v>算</v>
       </c>
       <c r="J42" t="str">
-        <v>考</v>
+        <v>算</v>
+      </c>
+      <c r="K42" t="str">
+        <v>算</v>
+      </c>
+      <c r="L42" t="str">
+        <v>医疗服务收入三年复合增长率</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>基本药物采购品种数占比</v>
+        <v>医疗服务收入占全院比重</v>
+      </c>
+      <c r="B43">
+        <v>0.618</v>
       </c>
       <c r="C43" t="str">
-        <v>合理用药</v>
+        <v>医服收入</v>
       </c>
       <c r="D43" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E43" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F43" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G43" t="str">
-        <v>省级招采平台</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H43" t="str">
-        <v>考</v>
+        <v>自制计算值</v>
       </c>
       <c r="I43" t="str">
-        <v>考</v>
+        <v>算</v>
       </c>
       <c r="J43" t="str">
-        <v>无</v>
+        <v>算</v>
+      </c>
+      <c r="K43" t="str">
+        <v>算</v>
+      </c>
+      <c r="L43" t="str">
+        <v>医疗服务收入占全院医疗服务收入的比重</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>基本药物采购金额占比</v>
+        <v>有效收入三年复合增长率</v>
+      </c>
+      <c r="B44">
+        <v>0.382</v>
       </c>
       <c r="C44" t="str">
-        <v>合理用药</v>
+        <v>医服收入</v>
       </c>
       <c r="D44" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E44" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F44" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G44" t="str">
-        <v>省级药品集中采购平台</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H44" t="str">
-        <v>无</v>
+        <v>自制计算值</v>
       </c>
       <c r="I44" t="str">
-        <v>无</v>
+        <v>算</v>
       </c>
       <c r="J44" t="str">
-        <v>考</v>
+        <v>算</v>
+      </c>
+      <c r="K44" t="str">
+        <v>算</v>
+      </c>
+      <c r="L44" t="str">
+        <v>有效收入三年符合增长率</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>抗菌药物使用强度DDDs</v>
+        <v>有效收入占全院比重</v>
+      </c>
+      <c r="B45">
+        <v>0.618</v>
       </c>
       <c r="C45" t="str">
-        <v>合理用药</v>
+        <v>医服收入</v>
       </c>
       <c r="D45" t="str">
         <v>通</v>
       </c>
       <c r="E45" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F45" t="str">
-        <v>DDD</v>
+        <v>高优</v>
       </c>
       <c r="G45" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H45" t="str">
-        <v>监</v>
+        <v>自制计算值</v>
       </c>
       <c r="I45" t="str">
-        <v>监</v>
+        <v>算</v>
       </c>
       <c r="J45" t="str">
-        <v>监</v>
+        <v>算</v>
+      </c>
+      <c r="K45" t="str">
+        <v>算</v>
+      </c>
+      <c r="L45" t="str">
+        <v>有效收入占全院有效收入合计的比重</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>点评中药处方占中药处方总数的比例</v>
+        <v>基本药物采购金额占比</v>
       </c>
       <c r="C46" t="str">
         <v>合理用药</v>
@@ -1958,56 +2220,68 @@
         <v>院</v>
       </c>
       <c r="E46" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F46" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G46" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H46" t="str">
-        <v>考</v>
+        <v>省级药品集中采购平台</v>
       </c>
       <c r="I46" t="str">
         <v>无</v>
       </c>
       <c r="J46" t="str">
         <v>无</v>
+      </c>
+      <c r="K46" t="str">
+        <v>考</v>
+      </c>
+      <c r="L46" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>点评处方占处方总数的比例</v>
+        <v>重点监控药品收入占比</v>
       </c>
       <c r="C47" t="str">
         <v>合理用药</v>
       </c>
       <c r="D47" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E47" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F47" t="str">
-        <v>百分比（%）</v>
+        <v>低优</v>
       </c>
       <c r="G47" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H47" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H47" t="str">
-        <v>考</v>
-      </c>
       <c r="I47" t="str">
-        <v>考</v>
+        <v>无</v>
       </c>
       <c r="J47" t="str">
         <v>无</v>
+      </c>
+      <c r="K47" t="str">
+        <v>考</v>
+      </c>
+      <c r="L47" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>重点监控药品收入占比</v>
+        <v>抗菌药物使用强度DDDs</v>
       </c>
       <c r="C48" t="str">
         <v>合理用药</v>
@@ -2016,390 +2290,438 @@
         <v>通</v>
       </c>
       <c r="E48" t="str">
-        <v>低优</v>
+        <v>指</v>
       </c>
       <c r="F48" t="str">
-        <v>百分比（%）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G48" t="str">
+        <v>DDD</v>
+      </c>
+      <c r="H48" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H48" t="str">
-        <v>无</v>
-      </c>
       <c r="I48" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J48" t="str">
-        <v>考</v>
+        <v>监</v>
+      </c>
+      <c r="K48" t="str">
+        <v>监</v>
+      </c>
+      <c r="L48" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>重点监控高值医用耗材收入占比</v>
+        <v>基本药物采购品种数占比</v>
       </c>
       <c r="C49" t="str">
         <v>合理用药</v>
       </c>
       <c r="D49" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E49" t="str">
-        <v>低优</v>
+        <v>指</v>
       </c>
       <c r="F49" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G49" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H49" t="str">
-        <v>考</v>
+        <v>省级招采平台</v>
       </c>
       <c r="I49" t="str">
         <v>考</v>
       </c>
       <c r="J49" t="str">
         <v>考</v>
+      </c>
+      <c r="K49" t="str">
+        <v>无</v>
+      </c>
+      <c r="L49" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>门诊患者基本药物处方占比</v>
+        <v>点评中药处方占中药处方总数的比例</v>
       </c>
       <c r="C50" t="str">
         <v>合理用药</v>
       </c>
       <c r="D50" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E50" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F50" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G50" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H50" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H50" t="str">
-        <v>考</v>
-      </c>
       <c r="I50" t="str">
         <v>考</v>
       </c>
       <c r="J50" t="str">
         <v>无</v>
+      </c>
+      <c r="K50" t="str">
+        <v>无</v>
+      </c>
+      <c r="L50" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>博士研究生导师占比</v>
+        <v>点评处方占处方总数的比例</v>
       </c>
       <c r="C51" t="str">
-        <v>地位影响</v>
+        <v>合理用药</v>
       </c>
       <c r="D51" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E51" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F51" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G51" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H51" t="str">
-        <v>自</v>
+        <v>医院填报</v>
       </c>
       <c r="I51" t="str">
-        <v>自</v>
+        <v>考</v>
       </c>
       <c r="J51" t="str">
-        <v>自</v>
+        <v>考</v>
+      </c>
+      <c r="K51" t="str">
+        <v>无</v>
+      </c>
+      <c r="L51" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>外省住院患者占比</v>
+        <v>住院患者基本药物使用率</v>
       </c>
       <c r="C52" t="str">
-        <v>地位影响</v>
+        <v>合理用药</v>
       </c>
       <c r="D52" t="str">
         <v>通</v>
       </c>
       <c r="E52" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F52" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G52" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H52" t="str">
-        <v>自</v>
+        <v>医院填报</v>
       </c>
       <c r="I52" t="str">
-        <v>自</v>
+        <v>考</v>
       </c>
       <c r="J52" t="str">
-        <v>自</v>
+        <v>考</v>
+      </c>
+      <c r="K52" t="str">
+        <v>无</v>
+      </c>
+      <c r="L52" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>硕士研究生导师占比</v>
+        <v>门诊患者基本药物处方占比</v>
       </c>
       <c r="C53" t="str">
-        <v>地位影响</v>
+        <v>合理用药</v>
       </c>
       <c r="D53" t="str">
         <v>通</v>
       </c>
       <c r="E53" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F53" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G53" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H53" t="str">
-        <v>自</v>
+        <v>医院填报</v>
       </c>
       <c r="I53" t="str">
-        <v>自</v>
+        <v>考</v>
       </c>
       <c r="J53" t="str">
-        <v>自</v>
+        <v>考</v>
+      </c>
+      <c r="K53" t="str">
+        <v>无</v>
+      </c>
+      <c r="L53" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>重点学科等级评分</v>
+        <v>国家组织药品集中采购中标药品金额占比</v>
       </c>
       <c r="C54" t="str">
-        <v>地位影响</v>
+        <v>合理用药</v>
       </c>
       <c r="D54" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E54" t="str">
-        <v>高优</v>
+        <v>指</v>
+      </c>
+      <c r="F54" t="str">
+        <v>逐步提高</v>
       </c>
       <c r="G54" t="str">
-        <v>自制计算值</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H54" t="str">
-        <v>算</v>
+        <v>医院填报</v>
       </c>
       <c r="I54" t="str">
-        <v>算</v>
+        <v>考</v>
       </c>
       <c r="J54" t="str">
-        <v>算</v>
+        <v>考</v>
+      </c>
+      <c r="K54" t="str">
+        <v>考</v>
+      </c>
+      <c r="L54" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>非医嘱离院率</v>
+        <v>重点监控高值医用耗材收入占比</v>
       </c>
       <c r="C55" t="str">
-        <v>地位影响</v>
+        <v>合理用药</v>
       </c>
       <c r="D55" t="str">
         <v>通</v>
       </c>
       <c r="E55" t="str">
+        <v>指</v>
+      </c>
+      <c r="F55" t="str">
         <v>低优</v>
       </c>
-      <c r="F55" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G55" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H55" t="str">
-        <v>自</v>
+        <v>医院填报</v>
       </c>
       <c r="I55" t="str">
-        <v>自</v>
+        <v>考</v>
       </c>
       <c r="J55" t="str">
-        <v>自</v>
+        <v>考</v>
+      </c>
+      <c r="K55" t="str">
+        <v>考</v>
+      </c>
+      <c r="L55" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>是否为教育部或科技部重点学科或重点实验室</v>
-      </c>
-      <c r="B56" t="str">
-        <v>是8否0</v>
+        <v>重点学科等级评分</v>
       </c>
       <c r="C56" t="str">
         <v>地位影响</v>
       </c>
       <c r="D56" t="str">
-        <v>科</v>
+        <v>通</v>
       </c>
       <c r="E56" t="str">
+        <v>指</v>
+      </c>
+      <c r="F56" t="str">
         <v>高优</v>
       </c>
-      <c r="F56" t="str">
-        <v>分</v>
-      </c>
-      <c r="G56" t="str">
-        <v>自制医院填报</v>
-      </c>
       <c r="H56" t="str">
-        <v>自</v>
+        <v>自制计算值</v>
       </c>
       <c r="I56" t="str">
-        <v>自</v>
+        <v>算</v>
       </c>
       <c r="J56" t="str">
-        <v>自</v>
+        <v>算</v>
+      </c>
+      <c r="K56" t="str">
+        <v>算</v>
+      </c>
+      <c r="L56" t="str">
+        <v>根据国家省市重点学科、专科得分取大弃小累计</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>是否为国家卫健委临床重点专科</v>
-      </c>
-      <c r="B57" t="str">
-        <v>是7否0</v>
+        <v>博士研究生导师占比</v>
       </c>
       <c r="C57" t="str">
         <v>地位影响</v>
       </c>
       <c r="D57" t="str">
-        <v>科</v>
+        <v>通</v>
       </c>
       <c r="E57" t="str">
+        <v>指</v>
+      </c>
+      <c r="F57" t="str">
         <v>高优</v>
       </c>
-      <c r="F57" t="str">
-        <v>分</v>
-      </c>
       <c r="G57" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H57" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H57" t="str">
-        <v>自</v>
-      </c>
       <c r="I57" t="str">
         <v>自</v>
       </c>
       <c r="J57" t="str">
+        <v>自</v>
+      </c>
+      <c r="K57" t="str">
         <v>自</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>是否为国家中医药局重点专科</v>
-      </c>
-      <c r="B58" t="str">
-        <v>是7否0</v>
+        <v>外省住院患者占比</v>
       </c>
       <c r="C58" t="str">
         <v>地位影响</v>
       </c>
       <c r="D58" t="str">
-        <v>科</v>
+        <v>通</v>
       </c>
       <c r="E58" t="str">
+        <v>指</v>
+      </c>
+      <c r="F58" t="str">
         <v>高优</v>
       </c>
-      <c r="F58" t="str">
-        <v>分</v>
-      </c>
       <c r="G58" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H58" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H58" t="str">
-        <v>自</v>
-      </c>
       <c r="I58" t="str">
         <v>自</v>
       </c>
       <c r="J58" t="str">
+        <v>自</v>
+      </c>
+      <c r="K58" t="str">
         <v>自</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
-      </c>
-      <c r="B59" t="str">
-        <v>是6否0</v>
+        <v>硕士研究生导师占比</v>
       </c>
       <c r="C59" t="str">
         <v>地位影响</v>
       </c>
       <c r="D59" t="str">
-        <v>科</v>
+        <v>通</v>
       </c>
       <c r="E59" t="str">
+        <v>指</v>
+      </c>
+      <c r="F59" t="str">
         <v>高优</v>
       </c>
-      <c r="F59" t="str">
-        <v>分</v>
-      </c>
       <c r="G59" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H59" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H59" t="str">
-        <v>自</v>
-      </c>
       <c r="I59" t="str">
         <v>自</v>
       </c>
       <c r="J59" t="str">
+        <v>自</v>
+      </c>
+      <c r="K59" t="str">
         <v>自</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>是否为省卫健委重点专科</v>
-      </c>
-      <c r="B60" t="str">
-        <v>是5否0</v>
+        <v>非医嘱离院率</v>
       </c>
       <c r="C60" t="str">
         <v>地位影响</v>
       </c>
       <c r="D60" t="str">
-        <v>科</v>
+        <v>通</v>
       </c>
       <c r="E60" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F60" t="str">
-        <v>分</v>
+        <v>低优</v>
       </c>
       <c r="G60" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H60" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H60" t="str">
-        <v>自</v>
-      </c>
       <c r="I60" t="str">
         <v>自</v>
       </c>
       <c r="J60" t="str">
+        <v>自</v>
+      </c>
+      <c r="K60" t="str">
         <v>自</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>是否为省中医药局重点专科</v>
-      </c>
-      <c r="B61" t="str">
-        <v>是5否0</v>
+        <v>是否为教育部或科技部重点学科或重点实验室</v>
       </c>
       <c r="C61" t="str">
         <v>地位影响</v>
@@ -2408,30 +2730,33 @@
         <v>科</v>
       </c>
       <c r="E61" t="str">
+        <v>数</v>
+      </c>
+      <c r="F61" t="str">
         <v>高优</v>
       </c>
-      <c r="F61" t="str">
+      <c r="G61" t="str">
         <v>分</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H61" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H61" t="str">
-        <v>自</v>
-      </c>
       <c r="I61" t="str">
         <v>自</v>
       </c>
       <c r="J61" t="str">
         <v>自</v>
+      </c>
+      <c r="K61" t="str">
+        <v>自</v>
+      </c>
+      <c r="L61" t="str">
+        <v>是8否0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>是否为地级市教育局或科技局重点学科或实验室</v>
-      </c>
-      <c r="B62" t="str">
-        <v>是4否0</v>
+        <v>是否为国家卫健委临床重点专科</v>
       </c>
       <c r="C62" t="str">
         <v>地位影响</v>
@@ -2440,30 +2765,33 @@
         <v>科</v>
       </c>
       <c r="E62" t="str">
+        <v>数</v>
+      </c>
+      <c r="F62" t="str">
         <v>高优</v>
       </c>
-      <c r="F62" t="str">
+      <c r="G62" t="str">
         <v>分</v>
       </c>
-      <c r="G62" t="str">
+      <c r="H62" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H62" t="str">
-        <v>自</v>
-      </c>
       <c r="I62" t="str">
         <v>自</v>
       </c>
       <c r="J62" t="str">
         <v>自</v>
+      </c>
+      <c r="K62" t="str">
+        <v>自</v>
+      </c>
+      <c r="L62" t="str">
+        <v>是7否0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>是否为地级卫健委重点专科</v>
-      </c>
-      <c r="B63" t="str">
-        <v>是3否0</v>
+        <v>是否为国家中医药局重点专科</v>
       </c>
       <c r="C63" t="str">
         <v>地位影响</v>
@@ -2472,30 +2800,33 @@
         <v>科</v>
       </c>
       <c r="E63" t="str">
+        <v>数</v>
+      </c>
+      <c r="F63" t="str">
         <v>高优</v>
       </c>
-      <c r="F63" t="str">
+      <c r="G63" t="str">
         <v>分</v>
       </c>
-      <c r="G63" t="str">
+      <c r="H63" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H63" t="str">
-        <v>自</v>
-      </c>
       <c r="I63" t="str">
         <v>自</v>
       </c>
       <c r="J63" t="str">
         <v>自</v>
+      </c>
+      <c r="K63" t="str">
+        <v>自</v>
+      </c>
+      <c r="L63" t="str">
+        <v>是7否0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>是否为地级中医药局重点专科</v>
-      </c>
-      <c r="B64" t="str">
-        <v>是3否0</v>
+        <v>是否为省教育厅或科技厅重点学科或重点实验室</v>
       </c>
       <c r="C64" t="str">
         <v>地位影响</v>
@@ -2504,30 +2835,33 @@
         <v>科</v>
       </c>
       <c r="E64" t="str">
+        <v>数</v>
+      </c>
+      <c r="F64" t="str">
         <v>高优</v>
       </c>
-      <c r="F64" t="str">
+      <c r="G64" t="str">
         <v>分</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H64" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H64" t="str">
-        <v>自</v>
-      </c>
       <c r="I64" t="str">
         <v>自</v>
       </c>
       <c r="J64" t="str">
         <v>自</v>
+      </c>
+      <c r="K64" t="str">
+        <v>自</v>
+      </c>
+      <c r="L64" t="str">
+        <v>是6否0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>是否为县级市教育局或科技局重点学科或实验室</v>
-      </c>
-      <c r="B65" t="str">
-        <v>是2否0</v>
+        <v>是否为省卫健委重点专科</v>
       </c>
       <c r="C65" t="str">
         <v>地位影响</v>
@@ -2536,30 +2870,33 @@
         <v>科</v>
       </c>
       <c r="E65" t="str">
+        <v>数</v>
+      </c>
+      <c r="F65" t="str">
         <v>高优</v>
       </c>
-      <c r="F65" t="str">
+      <c r="G65" t="str">
         <v>分</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H65" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H65" t="str">
-        <v>自</v>
-      </c>
       <c r="I65" t="str">
         <v>自</v>
       </c>
       <c r="J65" t="str">
         <v>自</v>
+      </c>
+      <c r="K65" t="str">
+        <v>自</v>
+      </c>
+      <c r="L65" t="str">
+        <v>是5否0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>是否为县级卫健委重点专科</v>
-      </c>
-      <c r="B66" t="str">
-        <v>是1否0</v>
+        <v>是否为省中医药局重点专科</v>
       </c>
       <c r="C66" t="str">
         <v>地位影响</v>
@@ -2568,30 +2905,33 @@
         <v>科</v>
       </c>
       <c r="E66" t="str">
+        <v>数</v>
+      </c>
+      <c r="F66" t="str">
         <v>高优</v>
       </c>
-      <c r="F66" t="str">
+      <c r="G66" t="str">
         <v>分</v>
       </c>
-      <c r="G66" t="str">
+      <c r="H66" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H66" t="str">
-        <v>自</v>
-      </c>
       <c r="I66" t="str">
         <v>自</v>
       </c>
       <c r="J66" t="str">
         <v>自</v>
+      </c>
+      <c r="K66" t="str">
+        <v>自</v>
+      </c>
+      <c r="L66" t="str">
+        <v>是5否0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>是否为县级中医药局重点专科</v>
-      </c>
-      <c r="B67" t="str">
-        <v>是1否0</v>
+        <v>是否为地级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="C67" t="str">
         <v>地位影响</v>
@@ -2600,172 +2940,208 @@
         <v>科</v>
       </c>
       <c r="E67" t="str">
+        <v>数</v>
+      </c>
+      <c r="F67" t="str">
         <v>高优</v>
       </c>
-      <c r="F67" t="str">
+      <c r="G67" t="str">
         <v>分</v>
       </c>
-      <c r="G67" t="str">
+      <c r="H67" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H67" t="str">
-        <v>自</v>
-      </c>
       <c r="I67" t="str">
         <v>自</v>
       </c>
       <c r="J67" t="str">
         <v>自</v>
+      </c>
+      <c r="K67" t="str">
+        <v>自</v>
+      </c>
+      <c r="L67" t="str">
+        <v>是4否0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>人才培养经费投入占比</v>
+        <v>是否为地级卫健委重点专科</v>
       </c>
       <c r="C68" t="str">
-        <v>学科建设</v>
+        <v>地位影响</v>
       </c>
       <c r="D68" t="str">
-        <v>通</v>
+        <v>科</v>
       </c>
       <c r="E68" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F68" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G68" t="str">
-        <v>医院填报</v>
+        <v>分</v>
       </c>
       <c r="H68" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I68" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J68" t="str">
-        <v>考</v>
+        <v>自</v>
+      </c>
+      <c r="K68" t="str">
+        <v>自</v>
+      </c>
+      <c r="L68" t="str">
+        <v>是3否0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>每百名卫生技术人员中医药科研成果转化金额</v>
+        <v>是否为地级中医药局重点专科</v>
       </c>
       <c r="C69" t="str">
-        <v>学科建设</v>
+        <v>地位影响</v>
       </c>
       <c r="D69" t="str">
-        <v>通</v>
+        <v>科</v>
       </c>
       <c r="E69" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F69" t="str">
-        <v>元</v>
+        <v>高优</v>
       </c>
       <c r="G69" t="str">
-        <v>医院填报</v>
+        <v>分</v>
       </c>
       <c r="H69" t="str">
-        <v>考</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I69" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J69" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K69" t="str">
+        <v>自</v>
+      </c>
+      <c r="L69" t="str">
+        <v>是3否0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>每百名卫生技术人员中医药科研项目经费</v>
+        <v>是否为县级市教育局或科技局重点学科或实验室</v>
       </c>
       <c r="C70" t="str">
-        <v>学科建设</v>
+        <v>地位影响</v>
       </c>
       <c r="D70" t="str">
-        <v>通</v>
+        <v>科</v>
       </c>
       <c r="E70" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F70" t="str">
-        <v>元</v>
+        <v>高优</v>
       </c>
       <c r="G70" t="str">
-        <v>医院填报</v>
+        <v>分</v>
       </c>
       <c r="H70" t="str">
-        <v>监</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I70" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J70" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K70" t="str">
+        <v>自</v>
+      </c>
+      <c r="L70" t="str">
+        <v>是2否0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>每百名卫生技术人员科研成果转化金额</v>
+        <v>是否为县级卫健委重点专科</v>
       </c>
       <c r="C71" t="str">
-        <v>学科建设</v>
+        <v>地位影响</v>
       </c>
       <c r="D71" t="str">
-        <v>通</v>
+        <v>科</v>
       </c>
       <c r="E71" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F71" t="str">
-        <v>元</v>
+        <v>高优</v>
       </c>
       <c r="G71" t="str">
-        <v>医院填报</v>
+        <v>分</v>
       </c>
       <c r="H71" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I71" t="str">
-        <v>考</v>
+        <v>自</v>
       </c>
       <c r="J71" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K71" t="str">
+        <v>自</v>
+      </c>
+      <c r="L71" t="str">
+        <v>是1否0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>每百名卫生技术人员科研项目经费</v>
+        <v>是否为县级中医药局重点专科</v>
       </c>
       <c r="C72" t="str">
-        <v>学科建设</v>
+        <v>地位影响</v>
       </c>
       <c r="D72" t="str">
-        <v>通</v>
+        <v>科</v>
       </c>
       <c r="E72" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F72" t="str">
-        <v>元</v>
+        <v>高优</v>
       </c>
       <c r="G72" t="str">
-        <v>医院填报</v>
+        <v>分</v>
       </c>
       <c r="H72" t="str">
-        <v>监</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I72" t="str">
-        <v>监</v>
+        <v>自</v>
       </c>
       <c r="J72" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K72" t="str">
+        <v>自</v>
+      </c>
+      <c r="L72" t="str">
+        <v>是1否0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>每百名卫生技术人员重点专科经费投入</v>
+        <v>每百名卫生技术人员科研成果转化金额</v>
       </c>
       <c r="C73" t="str">
         <v>学科建设</v>
@@ -2774,27 +3150,33 @@
         <v>通</v>
       </c>
       <c r="E73" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F73" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="G73" t="str">
         <v>元</v>
       </c>
-      <c r="G73" t="str">
+      <c r="H73" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H73" t="str">
-        <v>考</v>
-      </c>
       <c r="I73" t="str">
         <v>无</v>
       </c>
       <c r="J73" t="str">
-        <v>无</v>
+        <v>考</v>
+      </c>
+      <c r="K73" t="str">
+        <v>无</v>
+      </c>
+      <c r="L73" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>每百名卫生技术人员重点学科经费投入</v>
+        <v>人才培养经费投入占比</v>
       </c>
       <c r="C74" t="str">
         <v>学科建设</v>
@@ -2803,172 +3185,208 @@
         <v>通</v>
       </c>
       <c r="E74" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F74" t="str">
-        <v>元</v>
+        <v>逐步提高</v>
       </c>
       <c r="G74" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H74" t="str">
         <v>医院填报</v>
       </c>
-      <c r="H74" t="str">
-        <v>考</v>
-      </c>
       <c r="I74" t="str">
         <v>无</v>
       </c>
       <c r="J74" t="str">
         <v>无</v>
+      </c>
+      <c r="K74" t="str">
+        <v>考</v>
+      </c>
+      <c r="L74" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>万元收入能耗占比</v>
+        <v>每百名卫生技术人员中医药科研项目经费</v>
       </c>
       <c r="C75" t="str">
-        <v>收支结构</v>
+        <v>学科建设</v>
       </c>
       <c r="D75" t="str">
         <v>通</v>
       </c>
       <c r="E75" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F75" t="str">
-        <v>吨标煤/万元</v>
+        <v>逐步提高</v>
       </c>
       <c r="G75" t="str">
-        <v>财务年报表</v>
+        <v>元</v>
       </c>
       <c r="H75" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I75" t="str">
         <v>监</v>
       </c>
       <c r="J75" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K75" t="str">
+        <v>无</v>
+      </c>
+      <c r="L75" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>中药收入占药品收入比例</v>
+        <v>每百名卫生技术人员科研项目经费</v>
       </c>
       <c r="C76" t="str">
-        <v>收支结构</v>
+        <v>学科建设</v>
       </c>
       <c r="D76" t="str">
         <v>通</v>
       </c>
       <c r="E76" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F76" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G76" t="str">
-        <v>财务年报表</v>
+        <v>元</v>
       </c>
       <c r="H76" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I76" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J76" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K76" t="str">
+        <v>无</v>
+      </c>
+      <c r="L76" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>中药饮片收入占药品收入比例</v>
+        <v>每百名卫生技术人员中医药科研成果转化金额</v>
       </c>
       <c r="C77" t="str">
-        <v>收支结构</v>
+        <v>学科建设</v>
       </c>
       <c r="D77" t="str">
         <v>通</v>
       </c>
       <c r="E77" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F77" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G77" t="str">
-        <v>财务年报表</v>
+        <v>元</v>
       </c>
       <c r="H77" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I77" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J77" t="str">
         <v>无</v>
+      </c>
+      <c r="K77" t="str">
+        <v>无</v>
+      </c>
+      <c r="L77" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>人员支出占业务支出比重</v>
+        <v>每百名卫生技术人员重点专科经费投入</v>
       </c>
       <c r="C78" t="str">
-        <v>收支结构</v>
+        <v>学科建设</v>
       </c>
       <c r="D78" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E78" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F78" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G78" t="str">
-        <v>财务年报表</v>
+        <v>元</v>
       </c>
       <c r="H78" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I78" t="str">
-        <v>监</v>
+        <v>考</v>
       </c>
       <c r="J78" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K78" t="str">
+        <v>无</v>
+      </c>
+      <c r="L78" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>住院中医医疗服务项目收入占住院医疗收入比例</v>
+        <v>每百名卫生技术人员重点学科经费投入</v>
       </c>
       <c r="C79" t="str">
-        <v>收支结构</v>
+        <v>学科建设</v>
       </c>
       <c r="D79" t="str">
         <v>通</v>
       </c>
       <c r="E79" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F79" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G79" t="str">
-        <v>财务年报表、医院填报</v>
+        <v>元</v>
       </c>
       <c r="H79" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I79" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J79" t="str">
         <v>无</v>
+      </c>
+      <c r="K79" t="str">
+        <v>无</v>
+      </c>
+      <c r="L79" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>医疗服务收入</v>
+        <v>中药收入占药品收入比例</v>
       </c>
       <c r="C80" t="str">
         <v>收支结构</v>
@@ -2977,27 +3395,33 @@
         <v>通</v>
       </c>
       <c r="E80" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F80" t="str">
-        <v>万元</v>
+        <v>逐步提高</v>
       </c>
       <c r="G80" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H80" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I80" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J80" t="str">
-        <v>自</v>
+        <v>无</v>
+      </c>
+      <c r="K80" t="str">
+        <v>无</v>
+      </c>
+      <c r="L80" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>医疗收入</v>
+        <v>中药饮片收入占药品收入比例</v>
       </c>
       <c r="C81" t="str">
         <v>收支结构</v>
@@ -3006,27 +3430,33 @@
         <v>通</v>
       </c>
       <c r="E81" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F81" t="str">
-        <v>万元</v>
+        <v>逐步提高</v>
       </c>
       <c r="G81" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H81" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I81" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J81" t="str">
-        <v>自</v>
+        <v>无</v>
+      </c>
+      <c r="K81" t="str">
+        <v>无</v>
+      </c>
+      <c r="L81" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>医疗服务收入占医疗收入比例</v>
+        <v>住院中医医疗服务项目收入占住院医疗收入比例</v>
       </c>
       <c r="C82" t="str">
         <v>收支结构</v>
@@ -3035,22 +3465,28 @@
         <v>通</v>
       </c>
       <c r="E82" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F82" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G82" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H82" t="str">
-        <v>监</v>
+        <v>财务年报表、医院填报</v>
       </c>
       <c r="I82" t="str">
         <v>监</v>
       </c>
       <c r="J82" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K82" t="str">
+        <v>无</v>
+      </c>
+      <c r="L82" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="83">
@@ -3064,27 +3500,33 @@
         <v>通</v>
       </c>
       <c r="E83" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F83" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G83" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H83" t="str">
         <v>财务年报表、医院填报</v>
       </c>
-      <c r="H83" t="str">
-        <v>监</v>
-      </c>
       <c r="I83" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J83" t="str">
         <v>无</v>
+      </c>
+      <c r="K83" t="str">
+        <v>无</v>
+      </c>
+      <c r="L83" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>收支结余</v>
+        <v>门诊中医医疗服务项目收入占门诊医疗收入比例</v>
       </c>
       <c r="C84" t="str">
         <v>收支结构</v>
@@ -3093,51 +3535,63 @@
         <v>通</v>
       </c>
       <c r="E84" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F84" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G84" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H84" t="str">
-        <v>监</v>
+        <v>财务年报表、医院填报</v>
       </c>
       <c r="I84" t="str">
         <v>监</v>
       </c>
       <c r="J84" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K84" t="str">
+        <v>无</v>
+      </c>
+      <c r="L84" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>有效收入</v>
+        <v>人员支出占业务支出比重</v>
       </c>
       <c r="C85" t="str">
         <v>收支结构</v>
       </c>
       <c r="D85" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E85" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F85" t="str">
-        <v>万元</v>
+        <v>逐步提高</v>
       </c>
       <c r="G85" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H85" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I85" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J85" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K85" t="str">
+        <v>监</v>
+      </c>
+      <c r="L85" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="86">
@@ -3151,27 +3605,33 @@
         <v>院</v>
       </c>
       <c r="E86" t="str">
+        <v>指</v>
+      </c>
+      <c r="F86" t="str">
         <v>低优</v>
       </c>
-      <c r="F86" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G86" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H86" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="H86" t="str">
-        <v>监</v>
-      </c>
       <c r="I86" t="str">
         <v>监</v>
       </c>
       <c r="J86" t="str">
         <v>监</v>
+      </c>
+      <c r="K86" t="str">
+        <v>监</v>
+      </c>
+      <c r="L86" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>门诊中医医疗服务项目收入占门诊医疗收入比例</v>
+        <v>万元收入能耗占比</v>
       </c>
       <c r="C87" t="str">
         <v>收支结构</v>
@@ -3180,172 +3640,199 @@
         <v>通</v>
       </c>
       <c r="E87" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F87" t="str">
-        <v>百分比（%）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G87" t="str">
-        <v>财务年报表、医院填报</v>
+        <v>吨标煤/万元</v>
       </c>
       <c r="H87" t="str">
-        <v>监</v>
+        <v>财务年报表</v>
       </c>
       <c r="I87" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="J87" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K87" t="str">
+        <v>监</v>
+      </c>
+      <c r="L87" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>平均住院日</v>
+        <v>医疗服务收入占医疗收入比例</v>
       </c>
       <c r="C88" t="str">
-        <v>服务流程</v>
+        <v>收支结构</v>
       </c>
       <c r="D88" t="str">
         <v>通</v>
       </c>
       <c r="E88" t="str">
-        <v>低优</v>
+        <v>指</v>
       </c>
       <c r="F88" t="str">
-        <v>天</v>
+        <v>逐步提高</v>
       </c>
       <c r="G88" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H88" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I88" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J88" t="str">
         <v>监</v>
+      </c>
+      <c r="K88" t="str">
+        <v>监</v>
+      </c>
+      <c r="L88" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>电子病历应用功能水平分级</v>
+        <v>收支结余</v>
       </c>
       <c r="C89" t="str">
-        <v>服务流程</v>
+        <v>收支结构</v>
       </c>
       <c r="D89" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E89" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F89" t="str">
-        <v>级别</v>
+        <v>无标准</v>
       </c>
       <c r="G89" t="str">
-        <v>国家卫生健康委</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H89" t="str">
-        <v>监</v>
+        <v>财务年报表</v>
       </c>
       <c r="I89" t="str">
         <v>监</v>
       </c>
       <c r="J89" t="str">
         <v>监</v>
+      </c>
+      <c r="K89" t="str">
+        <v>监</v>
+      </c>
+      <c r="L89" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>省级室间质量评价临床检验项目参加率</v>
+        <v>医疗服务收入</v>
       </c>
       <c r="C90" t="str">
-        <v>服务流程</v>
+        <v>收支结构</v>
       </c>
       <c r="D90" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E90" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F90" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G90" t="str">
-        <v>省级卫生健康委</v>
+        <v>万元</v>
       </c>
       <c r="H90" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I90" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J90" t="str">
-        <v>考</v>
+        <v>自</v>
+      </c>
+      <c r="K90" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>省级室间质量评价临床检验项目合格率</v>
+        <v>医疗收入</v>
       </c>
       <c r="C91" t="str">
-        <v>服务流程</v>
+        <v>收支结构</v>
       </c>
       <c r="D91" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E91" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F91" t="str">
-        <v>百分比（%）</v>
+        <v>无标准</v>
       </c>
       <c r="G91" t="str">
-        <v>省级卫生健康委</v>
+        <v>万元</v>
       </c>
       <c r="H91" t="str">
-        <v>无</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I91" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J91" t="str">
-        <v>考</v>
+        <v>自</v>
+      </c>
+      <c r="K91" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>门诊患者平均预约诊疗率</v>
+        <v>有效收入</v>
       </c>
       <c r="C92" t="str">
-        <v>服务流程</v>
+        <v>收支结构</v>
       </c>
       <c r="D92" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E92" t="str">
-        <v>逐步提高</v>
+        <v>数</v>
       </c>
       <c r="F92" t="str">
-        <v>百分比（%）</v>
+        <v>高优</v>
       </c>
       <c r="G92" t="str">
-        <v>医院填报</v>
+        <v>万元</v>
       </c>
       <c r="H92" t="str">
-        <v>考</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I92" t="str">
-        <v>考</v>
+        <v>自</v>
       </c>
       <c r="J92" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K92" t="str">
+        <v>自</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>门诊患者预约后平均等待时间</v>
+        <v>省级室间质量评价临床检验项目参加率</v>
       </c>
       <c r="C93" t="str">
         <v>服务流程</v>
@@ -3354,346 +3841,418 @@
         <v>院</v>
       </c>
       <c r="E93" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F93" t="str">
-        <v>分钟</v>
+        <v>逐步提高</v>
       </c>
       <c r="G93" t="str">
-        <v>医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H93" t="str">
-        <v>考</v>
+        <v>省级卫生健康委</v>
       </c>
       <c r="I93" t="str">
-        <v>考</v>
+        <v>无</v>
       </c>
       <c r="J93" t="str">
         <v>无</v>
+      </c>
+      <c r="K93" t="str">
+        <v>考</v>
+      </c>
+      <c r="L93" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>I类切口手术部位感染率</v>
+        <v>省级室间质量评价临床检验项目合格率</v>
       </c>
       <c r="C94" t="str">
-        <v>质量安全</v>
+        <v>服务流程</v>
       </c>
       <c r="D94" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E94" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F94" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G94" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H94" t="str">
-        <v>监</v>
+        <v>省级卫生健康委</v>
       </c>
       <c r="I94" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J94" t="str">
         <v>无</v>
+      </c>
+      <c r="K94" t="str">
+        <v>考</v>
+      </c>
+      <c r="L94" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>优质护理服务病房覆盖率</v>
+        <v>电子病历应用功能水平分级</v>
       </c>
       <c r="C95" t="str">
-        <v>质量安全</v>
+        <v>服务流程</v>
       </c>
       <c r="D95" t="str">
         <v>院</v>
       </c>
       <c r="E95" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F95" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G95" t="str">
-        <v>医院填报</v>
+        <v>级别</v>
       </c>
       <c r="H95" t="str">
-        <v>考</v>
+        <v>国家卫生健康委</v>
       </c>
       <c r="I95" t="str">
-        <v>考</v>
+        <v>监</v>
       </c>
       <c r="J95" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K95" t="str">
+        <v>监</v>
+      </c>
+      <c r="L95" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>低风险组病例死亡率</v>
+        <v>门诊患者平均预约诊疗率</v>
       </c>
       <c r="C96" t="str">
-        <v>质量安全</v>
+        <v>服务流程</v>
       </c>
       <c r="D96" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E96" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F96" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G96" t="str">
-        <v>病案首页</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H96" t="str">
-        <v>无</v>
+        <v>医院填报</v>
       </c>
       <c r="I96" t="str">
-        <v>监</v>
+        <v>考</v>
       </c>
       <c r="J96" t="str">
-        <v>监</v>
+        <v>考</v>
+      </c>
+      <c r="K96" t="str">
+        <v>无</v>
+      </c>
+      <c r="L96" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>手术患者并发症发生率</v>
+        <v>门诊患者预约后平均等待时间</v>
       </c>
       <c r="C97" t="str">
-        <v>质量安全</v>
+        <v>服务流程</v>
       </c>
       <c r="D97" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E97" t="str">
+        <v>指</v>
+      </c>
+      <c r="F97" t="str">
         <v>逐步降低</v>
       </c>
-      <c r="F97" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G97" t="str">
-        <v>病案首页</v>
+        <v>分钟</v>
       </c>
       <c r="H97" t="str">
-        <v>监</v>
+        <v>医院填报</v>
       </c>
       <c r="I97" t="str">
-        <v>监</v>
+        <v>考</v>
       </c>
       <c r="J97" t="str">
-        <v>监</v>
+        <v>考</v>
+      </c>
+      <c r="K97" t="str">
+        <v>无</v>
+      </c>
+      <c r="L97" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>理法方药使用一致的出院患者比例</v>
+        <v>平均住院日</v>
       </c>
       <c r="C98" t="str">
-        <v>质量安全</v>
+        <v>服务流程</v>
       </c>
       <c r="D98" t="str">
         <v>通</v>
       </c>
       <c r="E98" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F98" t="str">
-        <v>百分比（%）</v>
+        <v>低优</v>
       </c>
       <c r="G98" t="str">
-        <v>医院填报</v>
+        <v>天</v>
       </c>
       <c r="H98" t="str">
-        <v>考</v>
+        <v>病案首页</v>
       </c>
       <c r="I98" t="str">
-        <v>无</v>
+        <v>自</v>
       </c>
       <c r="J98" t="str">
-        <v>无</v>
+        <v>自</v>
+      </c>
+      <c r="K98" t="str">
+        <v>监</v>
+      </c>
+      <c r="L98" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>通过国家室间质量评价的临床检验项目数</v>
+        <v>低风险组病例死亡率</v>
       </c>
       <c r="C99" t="str">
         <v>质量安全</v>
       </c>
       <c r="D99" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E99" t="str">
-        <v>逐步提高</v>
+        <v>指</v>
       </c>
       <c r="F99" t="str">
-        <v>百分比（%）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G99" t="str">
-        <v>国家卫生健康委</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H99" t="str">
-        <v>监</v>
+        <v>病案首页</v>
       </c>
       <c r="I99" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J99" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K99" t="str">
+        <v>监</v>
+      </c>
+      <c r="L99" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>住院次均药品费用增幅</v>
+        <v>通过国家室间质量评价的临床检验项目数</v>
       </c>
       <c r="C100" t="str">
-        <v>费用控制</v>
+        <v>质量安全</v>
       </c>
       <c r="D100" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E100" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F100" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G100" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H100" t="str">
-        <v>监</v>
+        <v>国家卫生健康委</v>
       </c>
       <c r="I100" t="str">
         <v>监</v>
       </c>
       <c r="J100" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K100" t="str">
+        <v>无</v>
+      </c>
+      <c r="L100" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>住院次均费用增幅</v>
+        <v>I类切口手术部位感染率</v>
       </c>
       <c r="C101" t="str">
-        <v>费用控制</v>
+        <v>质量安全</v>
       </c>
       <c r="D101" t="str">
         <v>通</v>
       </c>
       <c r="E101" t="str">
+        <v>指</v>
+      </c>
+      <c r="F101" t="str">
         <v>逐步降低</v>
       </c>
-      <c r="F101" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G101" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H101" t="str">
-        <v>监</v>
+        <v>病案首页</v>
       </c>
       <c r="I101" t="str">
         <v>监</v>
       </c>
       <c r="J101" t="str">
-        <v>无</v>
+        <v>监</v>
+      </c>
+      <c r="K101" t="str">
+        <v>无</v>
+      </c>
+      <c r="L101" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>医疗收入增幅</v>
+        <v>手术患者并发症发生率</v>
       </c>
       <c r="C102" t="str">
-        <v>费用控制</v>
+        <v>质量安全</v>
       </c>
       <c r="D102" t="str">
         <v>通</v>
       </c>
       <c r="E102" t="str">
-        <v>低优</v>
+        <v>指</v>
       </c>
       <c r="F102" t="str">
-        <v>百分比（%）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G102" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H102" t="str">
-        <v>考</v>
+        <v>病案首页</v>
       </c>
       <c r="I102" t="str">
-        <v>考</v>
+        <v>监</v>
       </c>
       <c r="J102" t="str">
         <v>监</v>
+      </c>
+      <c r="K102" t="str">
+        <v>监</v>
+      </c>
+      <c r="L102" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>次均药品费用增幅</v>
+        <v>优质护理服务病房覆盖率</v>
       </c>
       <c r="C103" t="str">
-        <v>费用控制</v>
+        <v>质量安全</v>
       </c>
       <c r="D103" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E103" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F103" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G103" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H103" t="str">
-        <v>无</v>
+        <v>医院填报</v>
       </c>
       <c r="I103" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J103" t="str">
-        <v>监</v>
+        <v>考</v>
+      </c>
+      <c r="K103" t="str">
+        <v>无</v>
+      </c>
+      <c r="L103" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>次均费用增幅</v>
+        <v>理法方药使用一致的出院患者比例</v>
       </c>
       <c r="C104" t="str">
-        <v>费用控制</v>
+        <v>质量安全</v>
       </c>
       <c r="D104" t="str">
         <v>通</v>
       </c>
       <c r="E104" t="str">
-        <v>逐步降低</v>
+        <v>指</v>
       </c>
       <c r="F104" t="str">
-        <v>百分比（%）</v>
+        <v>逐步提高</v>
       </c>
       <c r="G104" t="str">
-        <v>财务年报表</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H104" t="str">
-        <v>无</v>
+        <v>医院填报</v>
       </c>
       <c r="I104" t="str">
-        <v>无</v>
+        <v>考</v>
       </c>
       <c r="J104" t="str">
-        <v>监</v>
+        <v>无</v>
+      </c>
+      <c r="K104" t="str">
+        <v>无</v>
+      </c>
+      <c r="L104" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>门诊次均药品费用增幅</v>
+        <v>次均药品费用增幅</v>
       </c>
       <c r="C105" t="str">
         <v>费用控制</v>
@@ -3702,27 +4261,33 @@
         <v>通</v>
       </c>
       <c r="E105" t="str">
+        <v>指</v>
+      </c>
+      <c r="F105" t="str">
         <v>逐步降低</v>
       </c>
-      <c r="F105" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G105" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H105" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="H105" t="str">
-        <v>监</v>
-      </c>
       <c r="I105" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J105" t="str">
         <v>无</v>
+      </c>
+      <c r="K105" t="str">
+        <v>监</v>
+      </c>
+      <c r="L105" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>门诊次均费用增幅</v>
+        <v>次均费用增幅</v>
       </c>
       <c r="C106" t="str">
         <v>费用控制</v>
@@ -3731,172 +4296,208 @@
         <v>通</v>
       </c>
       <c r="E106" t="str">
+        <v>指</v>
+      </c>
+      <c r="F106" t="str">
         <v>逐步降低</v>
       </c>
-      <c r="F106" t="str">
-        <v>百分比（%）</v>
-      </c>
       <c r="G106" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H106" t="str">
         <v>财务年报表</v>
       </c>
-      <c r="H106" t="str">
-        <v>监</v>
-      </c>
       <c r="I106" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J106" t="str">
         <v>无</v>
+      </c>
+      <c r="K106" t="str">
+        <v>监</v>
+      </c>
+      <c r="L106" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>医师人数与开放床位数比</v>
+        <v>住院次均药品费用增幅</v>
       </c>
       <c r="C107" t="str">
-        <v>资源效率</v>
+        <v>费用控制</v>
       </c>
       <c r="D107" t="str">
         <v>通</v>
       </c>
       <c r="E107" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F107" t="str">
-        <v>比值（1:X）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G107" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H107" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I107" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J107" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K107" t="str">
+        <v>无</v>
+      </c>
+      <c r="L107" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>卫生技术人员数与开放床位数比</v>
+        <v>住院次均费用增幅</v>
       </c>
       <c r="C108" t="str">
-        <v>资源效率</v>
+        <v>费用控制</v>
       </c>
       <c r="D108" t="str">
         <v>通</v>
       </c>
       <c r="E108" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F108" t="str">
-        <v>比值（1:X）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G108" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H108" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I108" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J108" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K108" t="str">
+        <v>无</v>
+      </c>
+      <c r="L108" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>实际开放床位数</v>
+        <v>门诊次均药品费用增幅</v>
       </c>
       <c r="C109" t="str">
-        <v>资源效率</v>
+        <v>费用控制</v>
       </c>
       <c r="D109" t="str">
         <v>通</v>
       </c>
       <c r="E109" t="str">
-        <v>无标准</v>
+        <v>指</v>
       </c>
       <c r="F109" t="str">
-        <v>张</v>
+        <v>逐步降低</v>
       </c>
       <c r="G109" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H109" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I109" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J109" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K109" t="str">
+        <v>无</v>
+      </c>
+      <c r="L109" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>开放床位使用率</v>
+        <v>门诊次均费用增幅</v>
       </c>
       <c r="C110" t="str">
-        <v>资源效率</v>
+        <v>费用控制</v>
       </c>
       <c r="D110" t="str">
         <v>通</v>
       </c>
       <c r="E110" t="str">
-        <v>有标准</v>
+        <v>指</v>
       </c>
       <c r="F110" t="str">
-        <v>百分比（%）</v>
+        <v>逐步降低</v>
       </c>
       <c r="G110" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H110" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I110" t="str">
-        <v>自</v>
+        <v>监</v>
       </c>
       <c r="J110" t="str">
-        <v>自</v>
+        <v>监</v>
+      </c>
+      <c r="K110" t="str">
+        <v>无</v>
+      </c>
+      <c r="L110" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>护士人数与开放床位数比</v>
+        <v>医疗收入增幅</v>
       </c>
       <c r="C111" t="str">
-        <v>资源效率</v>
+        <v>费用控制</v>
       </c>
       <c r="D111" t="str">
         <v>通</v>
       </c>
       <c r="E111" t="str">
-        <v>高优</v>
+        <v>指</v>
       </c>
       <c r="F111" t="str">
-        <v>比值（1:X）</v>
+        <v>低优</v>
       </c>
       <c r="G111" t="str">
-        <v>自制医院填报</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H111" t="str">
-        <v>自</v>
+        <v>财务年报表</v>
       </c>
       <c r="I111" t="str">
-        <v>自</v>
+        <v>考</v>
       </c>
       <c r="J111" t="str">
-        <v>自</v>
+        <v>考</v>
+      </c>
+      <c r="K111" t="str">
+        <v>监</v>
+      </c>
+      <c r="L111" t="str">
+        <v>国考手册</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>核定床位数</v>
+        <v>医师人数与开放床位数比</v>
       </c>
       <c r="C112" t="str">
         <v>资源效率</v>
@@ -3905,27 +4506,330 @@
         <v>通</v>
       </c>
       <c r="E112" t="str">
+        <v>指</v>
+      </c>
+      <c r="F112" t="str">
         <v>无标准</v>
       </c>
-      <c r="F112" t="str">
+      <c r="G112" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H112" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I112" t="str">
+        <v>自</v>
+      </c>
+      <c r="J112" t="str">
+        <v>自</v>
+      </c>
+      <c r="K112" t="str">
+        <v>自</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>卫生技术人员数与开放床位数比</v>
+      </c>
+      <c r="C113" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D113" t="str">
+        <v>院</v>
+      </c>
+      <c r="E113" t="str">
+        <v>指</v>
+      </c>
+      <c r="F113" t="str">
+        <v>无标准</v>
+      </c>
+      <c r="G113" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H113" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I113" t="str">
+        <v>自</v>
+      </c>
+      <c r="J113" t="str">
+        <v>自</v>
+      </c>
+      <c r="K113" t="str">
+        <v>自</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>实际开放床位数</v>
+      </c>
+      <c r="C114" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D114" t="str">
+        <v>通</v>
+      </c>
+      <c r="E114" t="str">
+        <v>数</v>
+      </c>
+      <c r="F114" t="str">
+        <v>无标准</v>
+      </c>
+      <c r="G114" t="str">
         <v>张</v>
       </c>
-      <c r="G112" t="str">
+      <c r="H114" t="str">
         <v>自制医院填报</v>
       </c>
-      <c r="H112" t="str">
-        <v>自</v>
-      </c>
-      <c r="I112" t="str">
-        <v>自</v>
-      </c>
-      <c r="J112" t="str">
-        <v>自</v>
+      <c r="I114" t="str">
+        <v>自</v>
+      </c>
+      <c r="J114" t="str">
+        <v>自</v>
+      </c>
+      <c r="K114" t="str">
+        <v>自</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>开放床位使用率</v>
+      </c>
+      <c r="C115" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D115" t="str">
+        <v>通</v>
+      </c>
+      <c r="E115" t="str">
+        <v>指</v>
+      </c>
+      <c r="F115" t="str">
+        <v>有标准</v>
+      </c>
+      <c r="G115" t="str">
+        <v>百分比（%）</v>
+      </c>
+      <c r="H115" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I115" t="str">
+        <v>自</v>
+      </c>
+      <c r="J115" t="str">
+        <v>自</v>
+      </c>
+      <c r="K115" t="str">
+        <v>自</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>护士人数与开放床位数比</v>
+      </c>
+      <c r="C116" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D116" t="str">
+        <v>通</v>
+      </c>
+      <c r="E116" t="str">
+        <v>指</v>
+      </c>
+      <c r="F116" t="str">
+        <v>高优</v>
+      </c>
+      <c r="G116" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H116" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I116" t="str">
+        <v>自</v>
+      </c>
+      <c r="J116" t="str">
+        <v>自</v>
+      </c>
+      <c r="K116" t="str">
+        <v>自</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>核定床位数</v>
+      </c>
+      <c r="C117" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D117" t="str">
+        <v>通</v>
+      </c>
+      <c r="E117" t="str">
+        <v>数</v>
+      </c>
+      <c r="F117" t="str">
+        <v>无标准</v>
+      </c>
+      <c r="G117" t="str">
+        <v>张</v>
+      </c>
+      <c r="H117" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I117" t="str">
+        <v>自</v>
+      </c>
+      <c r="J117" t="str">
+        <v>自</v>
+      </c>
+      <c r="K117" t="str">
+        <v>自</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>人均医疗服务收入</v>
+      </c>
+      <c r="C118" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D118" t="str">
+        <v>通</v>
+      </c>
+      <c r="E118" t="str">
+        <v>指</v>
+      </c>
+      <c r="F118" t="str">
+        <v>高优</v>
+      </c>
+      <c r="G118" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H118" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I118" t="str">
+        <v>自</v>
+      </c>
+      <c r="J118" t="str">
+        <v>自</v>
+      </c>
+      <c r="K118" t="str">
+        <v>自</v>
+      </c>
+      <c r="L118" t="str">
+        <v>按科室人员数人均医疗服务收入</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>床均医疗服务收入</v>
+      </c>
+      <c r="C119" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D119" t="str">
+        <v>通</v>
+      </c>
+      <c r="E119" t="str">
+        <v>指</v>
+      </c>
+      <c r="F119" t="str">
+        <v>高优</v>
+      </c>
+      <c r="G119" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H119" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I119" t="str">
+        <v>自</v>
+      </c>
+      <c r="J119" t="str">
+        <v>自</v>
+      </c>
+      <c r="K119" t="str">
+        <v>自</v>
+      </c>
+      <c r="L119" t="str">
+        <v>按开放床位数床均医疗服务收入</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>人均有效收入</v>
+      </c>
+      <c r="C120" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D120" t="str">
+        <v>通</v>
+      </c>
+      <c r="E120" t="str">
+        <v>指</v>
+      </c>
+      <c r="F120" t="str">
+        <v>高优</v>
+      </c>
+      <c r="G120" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H120" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I120" t="str">
+        <v>自</v>
+      </c>
+      <c r="J120" t="str">
+        <v>自</v>
+      </c>
+      <c r="K120" t="str">
+        <v>自</v>
+      </c>
+      <c r="L120" t="str">
+        <v>按科室人员数人均有效收入</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>床均有效收入</v>
+      </c>
+      <c r="C121" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="D121" t="str">
+        <v>通</v>
+      </c>
+      <c r="E121" t="str">
+        <v>指</v>
+      </c>
+      <c r="F121" t="str">
+        <v>高优</v>
+      </c>
+      <c r="G121" t="str">
+        <v>比值（1:X）</v>
+      </c>
+      <c r="H121" t="str">
+        <v>自制医院填报</v>
+      </c>
+      <c r="I121" t="str">
+        <v>自</v>
+      </c>
+      <c r="J121" t="str">
+        <v>自</v>
+      </c>
+      <c r="K121" t="str">
+        <v>自</v>
+      </c>
+      <c r="L121" t="str">
+        <v>按开放床位数床均有效收入</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K112"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L121"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3938,7 +4842,7 @@
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="8"/>
-    <col min="2" max="2" customWidth="1" width="7"/>
+    <col min="2" max="2" customWidth="1" width="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3946,151 +4850,151 @@
         <v>数据名</v>
       </c>
       <c r="B1" t="str">
-        <v>选项</v>
+        <v>内外全</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
         <v>普外科</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="B2" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>心胸外科</v>
       </c>
-      <c r="B3">
-        <v>3</v>
+      <c r="B3" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>泌尿外科</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>神经外科</v>
       </c>
-      <c r="B5">
-        <v>3</v>
+      <c r="B5" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>妇产科</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>儿外科</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>儿内科</v>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>内分泌科</v>
       </c>
-      <c r="B9">
-        <v>3</v>
+      <c r="B9" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>老年医学科</v>
       </c>
-      <c r="B10">
-        <v>3</v>
+      <c r="B10" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>神经内科</v>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>心血管内科</v>
       </c>
-      <c r="B12">
-        <v>3</v>
+      <c r="B12" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>呼吸内科</v>
       </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>消化内科</v>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>肾内科</v>
       </c>
-      <c r="B15">
-        <v>3</v>
+      <c r="B15" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>重症医学科</v>
       </c>
-      <c r="B16">
-        <v>3</v>
+      <c r="B16" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>感染科</v>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>肝病科</v>
       </c>
-      <c r="B18">
-        <v>3</v>
+      <c r="B18" t="str">
+        <v>全</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>康复医学科</v>
       </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="B19" t="str">
+        <v>全</v>
       </c>
     </row>
   </sheetData>

--- a/cases/goodhostpital2021/项目设置_bu.xlsx
+++ b/cases/goodhostpital2021/项目设置_bu.xlsx
@@ -668,7 +668,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>中医医师占比</v>
+        <v>医院感染管理专职人员数与开放床位数比</v>
       </c>
       <c r="C2" t="str">
         <v>人员结构</v>
@@ -680,30 +680,30 @@
         <v>指</v>
       </c>
       <c r="F2" t="str">
-        <v>逐步提高</v>
+        <v>高优</v>
       </c>
       <c r="G2" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
       <c r="H2" t="str">
-        <v>国家医疗机构、医师、护士电子化注册系统</v>
+        <v>自制医院填报</v>
       </c>
       <c r="I2" t="str">
-        <v>无</v>
+        <v>审</v>
       </c>
       <c r="J2" t="str">
-        <v>监</v>
+        <v>审</v>
       </c>
       <c r="K2" t="str">
-        <v>监</v>
+        <v>审</v>
       </c>
       <c r="L2" t="str">
-        <v>国考手册</v>
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>儿科医师占比</v>
+        <v>中医医师占比</v>
       </c>
       <c r="C3" t="str">
         <v>人员结构</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>病理医师占比</v>
+        <v>儿科医师占比</v>
       </c>
       <c r="C4" t="str">
         <v>人员结构</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>重症医师占比</v>
+        <v>病理医师占比</v>
       </c>
       <c r="C5" t="str">
         <v>人员结构</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>麻醉医师占比</v>
+        <v>重症医师占比</v>
       </c>
       <c r="C6" t="str">
         <v>人员结构</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>中医类别执业医师含执业助理医师占执业医师总数比例</v>
+        <v>麻醉医师占比</v>
       </c>
       <c r="C7" t="str">
         <v>人员结构</v>
       </c>
       <c r="D7" t="str">
-        <v>通</v>
+        <v>院</v>
       </c>
       <c r="E7" t="str">
         <v>指</v>
@@ -864,13 +864,13 @@
         <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="I7" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="J7" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="K7" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="L7" t="str">
         <v>国考手册</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>医护比</v>
+        <v>中医类别执业医师含执业助理医师占执业医师总数比例</v>
       </c>
       <c r="C8" t="str">
         <v>人员结构</v>
@@ -890,10 +890,10 @@
         <v>指</v>
       </c>
       <c r="F8" t="str">
-        <v>低优</v>
+        <v>逐步提高</v>
       </c>
       <c r="G8" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H8" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -902,10 +902,10 @@
         <v>监</v>
       </c>
       <c r="J8" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="K8" t="str">
-        <v>监</v>
+        <v>无</v>
       </c>
       <c r="L8" t="str">
         <v>国考手册</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>护理人员系统接受中医药知识和技能培训比例</v>
+        <v>医护比</v>
       </c>
       <c r="C9" t="str">
         <v>人员结构</v>
@@ -925,22 +925,22 @@
         <v>指</v>
       </c>
       <c r="F9" t="str">
-        <v>逐步提高</v>
+        <v>低优</v>
       </c>
       <c r="G9" t="str">
-        <v>百分比（%）</v>
+        <v>比值（1:X）</v>
       </c>
       <c r="H9" t="str">
-        <v>医院填报</v>
+        <v>国家医疗机构、医师、护士电子化注册系统</v>
       </c>
       <c r="I9" t="str">
-        <v>考</v>
+        <v>监</v>
       </c>
       <c r="J9" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="K9" t="str">
-        <v>无</v>
+        <v>监</v>
       </c>
       <c r="L9" t="str">
         <v>国考手册</v>
@@ -948,37 +948,37 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>医院感染管理专职人员数与开放床位数比</v>
+        <v>护理人员系统接受中医药知识和技能培训比例</v>
       </c>
       <c r="C10" t="str">
         <v>人员结构</v>
       </c>
       <c r="D10" t="str">
-        <v>院</v>
+        <v>通</v>
       </c>
       <c r="E10" t="str">
         <v>指</v>
       </c>
       <c r="F10" t="str">
-        <v>高优</v>
+        <v>逐步提高</v>
       </c>
       <c r="G10" t="str">
-        <v>比值（1:X）</v>
+        <v>百分比（%）</v>
       </c>
       <c r="H10" t="str">
-        <v>自制医院填报</v>
+        <v>医院填报</v>
       </c>
       <c r="I10" t="str">
-        <v>审</v>
+        <v>考</v>
       </c>
       <c r="J10" t="str">
-        <v>审</v>
+        <v>无</v>
       </c>
       <c r="K10" t="str">
-        <v>审</v>
+        <v>无</v>
       </c>
       <c r="L10" t="str">
-        <v>等级评审标准细则</v>
+        <v>国考手册</v>
       </c>
     </row>
     <row r="11">
@@ -2567,7 +2567,7 @@
         <v>地位影响</v>
       </c>
       <c r="D56" t="str">
-        <v>通</v>
+        <v>科</v>
       </c>
       <c r="E56" t="str">
         <v>指</v>

--- a/cases/goodhostpital2021/项目设置_bu.xlsx
+++ b/cases/goodhostpital2021/项目设置_bu.xlsx
@@ -2751,7 +2751,7 @@
         <v>自</v>
       </c>
       <c r="L61" t="str">
-        <v>是8否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="62">
@@ -2786,7 +2786,7 @@
         <v>自</v>
       </c>
       <c r="L62" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="63">
@@ -2821,7 +2821,7 @@
         <v>自</v>
       </c>
       <c r="L63" t="str">
-        <v>是7否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="64">
@@ -2856,7 +2856,7 @@
         <v>自</v>
       </c>
       <c r="L64" t="str">
-        <v>是6否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="65">
@@ -2891,7 +2891,7 @@
         <v>自</v>
       </c>
       <c r="L65" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="66">
@@ -2926,7 +2926,7 @@
         <v>自</v>
       </c>
       <c r="L66" t="str">
-        <v>是5否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="67">
@@ -2961,7 +2961,7 @@
         <v>自</v>
       </c>
       <c r="L67" t="str">
-        <v>是4否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="68">
@@ -2996,7 +2996,7 @@
         <v>自</v>
       </c>
       <c r="L68" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="69">
@@ -3031,7 +3031,7 @@
         <v>自</v>
       </c>
       <c r="L69" t="str">
-        <v>是3否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="70">
@@ -3066,7 +3066,7 @@
         <v>自</v>
       </c>
       <c r="L70" t="str">
-        <v>是2否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="71">
@@ -3101,7 +3101,7 @@
         <v>自</v>
       </c>
       <c r="L71" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="72">
@@ -3136,7 +3136,7 @@
         <v>自</v>
       </c>
       <c r="L72" t="str">
-        <v>是1否0</v>
+        <v>是填1,否填0</v>
       </c>
     </row>
     <row r="73">

--- a/cases/goodhostpital2021/项目设置_bu.xlsx
+++ b/cases/goodhostpital2021/项目设置_bu.xlsx
@@ -4518,13 +4518,16 @@
         <v>自制医院填报</v>
       </c>
       <c r="I112" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="J112" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="K112" t="str">
-        <v>自</v>
+        <v>审</v>
+      </c>
+      <c r="L112" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="113">
@@ -4550,13 +4553,16 @@
         <v>自制医院填报</v>
       </c>
       <c r="I113" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="J113" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="K113" t="str">
-        <v>自</v>
+        <v>审</v>
+      </c>
+      <c r="L113" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="114">
@@ -4582,13 +4588,16 @@
         <v>自制医院填报</v>
       </c>
       <c r="I114" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="J114" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="K114" t="str">
-        <v>自</v>
+        <v>审</v>
+      </c>
+      <c r="L114" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="115">
@@ -4614,13 +4623,16 @@
         <v>自制医院填报</v>
       </c>
       <c r="I115" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="J115" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="K115" t="str">
-        <v>自</v>
+        <v>审</v>
+      </c>
+      <c r="L115" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="116">
@@ -4646,13 +4658,16 @@
         <v>自制医院填报</v>
       </c>
       <c r="I116" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="J116" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="K116" t="str">
-        <v>自</v>
+        <v>审</v>
+      </c>
+      <c r="L116" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="117">
@@ -4678,13 +4693,16 @@
         <v>自制医院填报</v>
       </c>
       <c r="I117" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="J117" t="str">
-        <v>自</v>
+        <v>审</v>
       </c>
       <c r="K117" t="str">
-        <v>自</v>
+        <v>审</v>
+      </c>
+      <c r="L117" t="str">
+        <v>等级评审标准细则</v>
       </c>
     </row>
     <row r="118">

--- a/cases/goodhostpital2021/项目设置_bu.xlsx
+++ b/cases/goodhostpital2021/项目设置_bu.xlsx
@@ -405,7 +405,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>运营效率</v>
+        <v>满意度评价</v>
       </c>
       <c r="B3">
         <v>0.3</v>
@@ -413,7 +413,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>持续发展</v>
+        <v>运营效率</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -421,7 +421,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>满意度评价</v>
+        <v>持续发展</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -517,7 +517,7 @@
         <v>人员结构</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C7" t="str">
         <v>持续发展</v>
@@ -528,7 +528,7 @@
         <v>人才培养</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C8" t="str">
         <v>持续发展</v>
@@ -539,7 +539,7 @@
         <v>学科建设</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C9" t="str">
         <v>持续发展</v>
@@ -572,7 +572,7 @@
         <v>收支结构</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C12" t="str">
         <v>运营效率</v>
@@ -594,7 +594,7 @@
         <v>资源效率</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C14" t="str">
         <v>运营效率</v>
